--- a/i18n/uk.xlsx
+++ b/i18n/uk.xlsx
@@ -1279,7 +1279,7 @@
     <t xml:space="preserve">Parus major</t>
   </si>
   <si>
-    <t xml:space="preserve">Синиця велика </t>
+    <t xml:space="preserve">Синиця велика</t>
   </si>
   <si>
     <t xml:space="preserve">Оновити годівницю. Якщо зробили це, отримайте 1 [die] з годівниці після оновлення.</t>
@@ -4915,9 +4915,9 @@
   <dimension ref="A1:J364"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A201" activeCellId="0" sqref="A201"/>
+      <selection pane="bottomLeft" activeCell="D138" activeCellId="0" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4928,7 +4928,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="116.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/i18n/uk.xlsx
+++ b/i18n/uk.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Birds" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1408">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -70,13 +70,13 @@
     <t xml:space="preserve">originalcore</t>
   </si>
   <si>
-    <t xml:space="preserve">American Avocet </t>
+    <t xml:space="preserve">American Avocet</t>
   </si>
   <si>
     <t xml:space="preserve">Recurvirostra americana</t>
   </si>
   <si>
-    <t xml:space="preserve">American Bittern </t>
+    <t xml:space="preserve">American Bittern</t>
   </si>
   <si>
     <t xml:space="preserve">Botaurus lentiginosus</t>
@@ -88,19 +88,19 @@
     <t xml:space="preserve">Fulica americana</t>
   </si>
   <si>
-    <t xml:space="preserve">American Crow </t>
+    <t xml:space="preserve">American Crow</t>
   </si>
   <si>
     <t xml:space="preserve">Corvus brachyrhynchos</t>
   </si>
   <si>
-    <t xml:space="preserve">American Goldfinch </t>
+    <t xml:space="preserve">American Goldfinch</t>
   </si>
   <si>
     <t xml:space="preserve">Spinus tristis</t>
   </si>
   <si>
-    <t xml:space="preserve">American Kestrel </t>
+    <t xml:space="preserve">American Kestrel</t>
   </si>
   <si>
     <t xml:space="preserve">Falco sparverius</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Turdus migratorius</t>
   </si>
   <si>
-    <t xml:space="preserve">American White Pelican </t>
+    <t xml:space="preserve">American White Pelican</t>
   </si>
   <si>
     <t xml:space="preserve">Pelecanus erythrorhynchos</t>
@@ -145,13 +145,13 @@
     <t xml:space="preserve">Anhinga anhinga</t>
   </si>
   <si>
-    <t xml:space="preserve">Anna's Hummingbird </t>
+    <t xml:space="preserve">Anna's Hummingbird</t>
   </si>
   <si>
     <t xml:space="preserve">Calypte anna</t>
   </si>
   <si>
-    <t xml:space="preserve">Ash-Throated Flycatcher </t>
+    <t xml:space="preserve">Ash-Throated Flycatcher</t>
   </si>
   <si>
     <t xml:space="preserve">Myiarchus cinerascens</t>
@@ -181,19 +181,19 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">Baird's Sparrow </t>
+    <t xml:space="preserve">Baird's Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Ammodramus bairdii</t>
   </si>
   <si>
-    <t xml:space="preserve">Bald Eagle </t>
+    <t xml:space="preserve">Bald Eagle</t>
   </si>
   <si>
     <t xml:space="preserve">Haliaeetus leucocephalus</t>
   </si>
   <si>
-    <t xml:space="preserve">Baltimore Oriole </t>
+    <t xml:space="preserve">Baltimore Oriole</t>
   </si>
   <si>
     <t xml:space="preserve">Icterus galbula</t>
@@ -217,7 +217,7 @@
     <t xml:space="preserve">Strix varia</t>
   </si>
   <si>
-    <t xml:space="preserve">Barrow's Goldeneye </t>
+    <t xml:space="preserve">Barrow's Goldeneye</t>
   </si>
   <si>
     <t xml:space="preserve">Bucephala islandica</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">Vireo bellii</t>
   </si>
   <si>
-    <t xml:space="preserve">Belted Kingfisher </t>
+    <t xml:space="preserve">Belted Kingfisher</t>
   </si>
   <si>
     <t xml:space="preserve">Megaceryle alcyon</t>
@@ -253,7 +253,7 @@
     <t xml:space="preserve">Оберіть ареал, де немає [egg]. Покладіть 1 [egg] на кожного птаха в цьому ареалі.</t>
   </si>
   <si>
-    <t xml:space="preserve">Black Skimmer </t>
+    <t xml:space="preserve">Black Skimmer</t>
   </si>
   <si>
     <t xml:space="preserve">Rynchops niger</t>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">Chlidonias niger</t>
   </si>
   <si>
-    <t xml:space="preserve">Black Vulture </t>
+    <t xml:space="preserve">Black Vulture</t>
   </si>
   <si>
     <t xml:space="preserve">Coragyps atratus</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">Dendrocygna autumnalis</t>
   </si>
   <si>
-    <t xml:space="preserve">Black-Billed Magpie </t>
+    <t xml:space="preserve">Black-Billed Magpie</t>
   </si>
   <si>
     <t xml:space="preserve">Pica hudsonia</t>
@@ -304,7 +304,7 @@
     <t xml:space="preserve">Archilochus alexandri</t>
   </si>
   <si>
-    <t xml:space="preserve">Black-Crowned Night-Heron </t>
+    <t xml:space="preserve">Black-Crowned Night-Heron</t>
   </si>
   <si>
     <t xml:space="preserve">Nycticorax nycticorax</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Корм, який отримує цей гравець, може бути будь-якого типу (і того самого, що й поцуплений).</t>
   </si>
   <si>
-    <t xml:space="preserve">Black-Necked Stilt </t>
+    <t xml:space="preserve">Black-Necked Stilt</t>
   </si>
   <si>
     <t xml:space="preserve">Himantopus mexicanus</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">Cyanocitta cristata</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue-Gray Gnatcatcher </t>
+    <t xml:space="preserve">Blue-Gray Gnatcatcher</t>
   </si>
   <si>
     <t xml:space="preserve">Polioptila caerulea</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve">Branta bernicla</t>
   </si>
   <si>
-    <t xml:space="preserve">Brewer's Blackbird </t>
+    <t xml:space="preserve">Brewer's Blackbird</t>
   </si>
   <si>
     <t xml:space="preserve">Euphagus cyanocephalus</t>
@@ -433,7 +433,7 @@
     <t xml:space="preserve">Buteo platypterus</t>
   </si>
   <si>
-    <t xml:space="preserve">Bronzed Cowbird </t>
+    <t xml:space="preserve">Bronzed Cowbird</t>
   </si>
   <si>
     <t xml:space="preserve">Molothrus aeneus</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve">Pelecanus occidentalis</t>
   </si>
   <si>
-    <t xml:space="preserve">Brown-Headed Cowbird </t>
+    <t xml:space="preserve">Brown-Headed Cowbird</t>
   </si>
   <si>
     <t xml:space="preserve">Molothrus ater</t>
@@ -466,7 +466,7 @@
     <t xml:space="preserve">Якщо після оновлення в годівниці немає вказаного типу корму, ви нічого не отримуєте.</t>
   </si>
   <si>
-    <t xml:space="preserve">Burrowing Owl </t>
+    <t xml:space="preserve">Burrowing Owl</t>
   </si>
   <si>
     <t xml:space="preserve">Athene cunicularia</t>
@@ -484,13 +484,13 @@
     <t xml:space="preserve">Gymnogyps californianus</t>
   </si>
   <si>
-    <t xml:space="preserve">California Quail </t>
+    <t xml:space="preserve">California Quail</t>
   </si>
   <si>
     <t xml:space="preserve">Callipepla californica</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada Goose </t>
+    <t xml:space="preserve">Canada Goose</t>
   </si>
   <si>
     <t xml:space="preserve">Branta canadensis</t>
@@ -502,7 +502,7 @@
     <t xml:space="preserve">Aythya valisineria</t>
   </si>
   <si>
-    <t xml:space="preserve">Carolina Chickadee </t>
+    <t xml:space="preserve">Carolina Chickadee</t>
   </si>
   <si>
     <t xml:space="preserve">Poecile carolinensis</t>
@@ -532,7 +532,7 @@
     <t xml:space="preserve">Haemorhous cassinii</t>
   </si>
   <si>
-    <t xml:space="preserve">Cassin's Sparrow </t>
+    <t xml:space="preserve">Cassin's Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Peucaea cassinii</t>
@@ -544,7 +544,7 @@
     <t xml:space="preserve">Bombycilla cedrorum</t>
   </si>
   <si>
-    <t xml:space="preserve">Cerulean Warbler </t>
+    <t xml:space="preserve">Cerulean Warbler</t>
   </si>
   <si>
     <t xml:space="preserve">Setophaga cerulea</t>
@@ -565,7 +565,7 @@
     <t xml:space="preserve">Ці птахи враховуються двічі тільки для цілей наприкінці раунду, а не для карт бонусів або балів наприкінці гри. Яйця на цих птахах не подвоюються, навіть якщо ціль раунду вимагає порахувати яйця.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chestnut-Collared Longspur </t>
+    <t xml:space="preserve">Chestnut-Collared Longspur</t>
   </si>
   <si>
     <t xml:space="preserve">Calcarius ornatus</t>
@@ -583,19 +583,19 @@
     <t xml:space="preserve">Chaetura pelagica</t>
   </si>
   <si>
-    <t xml:space="preserve">Chipping Sparrow </t>
+    <t xml:space="preserve">Chipping Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Spizella passerina</t>
   </si>
   <si>
-    <t xml:space="preserve">Clark's Grebe </t>
+    <t xml:space="preserve">Clark's Grebe</t>
   </si>
   <si>
     <t xml:space="preserve">Aechmophorus clarkii</t>
   </si>
   <si>
-    <t xml:space="preserve">Clark's Nutcracker </t>
+    <t xml:space="preserve">Clark's Nutcracker</t>
   </si>
   <si>
     <t xml:space="preserve">Nucifraga columbiana</t>
@@ -700,7 +700,7 @@
     <t xml:space="preserve">[star] гнізда враховуються як [cavity] для цього птаха.</t>
   </si>
   <si>
-    <t xml:space="preserve">Common Grackle </t>
+    <t xml:space="preserve">Common Grackle</t>
   </si>
   <si>
     <t xml:space="preserve">Quiscalus quiscula</t>
@@ -739,7 +739,7 @@
     <t xml:space="preserve">Gavia immer</t>
   </si>
   <si>
-    <t xml:space="preserve">Common Merganser </t>
+    <t xml:space="preserve">Common Merganser</t>
   </si>
   <si>
     <t xml:space="preserve">Mergus merganser</t>
@@ -760,7 +760,7 @@
     <t xml:space="preserve">Якщо додаткова карта птаха має властивість «При розіграші», вона спрацьовує.</t>
   </si>
   <si>
-    <t xml:space="preserve">Common Nighthawk </t>
+    <t xml:space="preserve">Common Nighthawk</t>
   </si>
   <si>
     <t xml:space="preserve">Chordeiles minor</t>
@@ -805,13 +805,13 @@
     <t xml:space="preserve">Скиньте до 5 [invertebrate] зі свого запасу. За кожен підкладіть 1 [card] з колоди під цього птаха.</t>
   </si>
   <si>
-    <t xml:space="preserve">Common Yellowthroat </t>
+    <t xml:space="preserve">Common Yellowthroat</t>
   </si>
   <si>
     <t xml:space="preserve">Geothlypis trichas</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooper's Hawk </t>
+    <t xml:space="preserve">Cooper's Hawk</t>
   </si>
   <si>
     <t xml:space="preserve">Accipiter cooperii</t>
@@ -841,13 +841,13 @@
     <t xml:space="preserve">Spiza americana</t>
   </si>
   <si>
-    <t xml:space="preserve">Double-Crested Cormorant </t>
+    <t xml:space="preserve">Double-Crested Cormorant</t>
   </si>
   <si>
     <t xml:space="preserve">Phalacrocorax auritus</t>
   </si>
   <si>
-    <t xml:space="preserve">Downy Woodpecker </t>
+    <t xml:space="preserve">Downy Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Picoides pubescens</t>
@@ -886,13 +886,13 @@
     <t xml:space="preserve">Tyrannus tyrannus</t>
   </si>
   <si>
-    <t xml:space="preserve">Eastern Phoebe </t>
+    <t xml:space="preserve">Eastern Phoebe</t>
   </si>
   <si>
     <t xml:space="preserve">Sayornis phoebe</t>
   </si>
   <si>
-    <t xml:space="preserve">Eastern Screech Owl </t>
+    <t xml:space="preserve">Eastern Screech Owl</t>
   </si>
   <si>
     <t xml:space="preserve">Megascops asio</t>
@@ -1192,7 +1192,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ferruginous Hawk </t>
+    <t xml:space="preserve">Ferruginous Hawk</t>
   </si>
   <si>
     <t xml:space="preserve">Buteo regalis</t>
@@ -1204,13 +1204,13 @@
     <t xml:space="preserve">Corvus ossifragus</t>
   </si>
   <si>
-    <t xml:space="preserve">Forster's Tern </t>
+    <t xml:space="preserve">Forster's Tern</t>
   </si>
   <si>
     <t xml:space="preserve">Sterna forsteri</t>
   </si>
   <si>
-    <t xml:space="preserve">Franklin's Gull </t>
+    <t xml:space="preserve">Franklin's Gull</t>
   </si>
   <si>
     <t xml:space="preserve">Leucophaeus pipixcan</t>
@@ -1234,7 +1234,7 @@
     <t xml:space="preserve">Aquila chrysaetos</t>
   </si>
   <si>
-    <t xml:space="preserve">Grasshopper Sparrow </t>
+    <t xml:space="preserve">Grasshopper Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Ammodramus savannarum</t>
@@ -1252,7 +1252,7 @@
     <t xml:space="preserve">Ardea herodias</t>
   </si>
   <si>
-    <t xml:space="preserve">Great Crested Flycatcher </t>
+    <t xml:space="preserve">Great Crested Flycatcher</t>
   </si>
   <si>
     <t xml:space="preserve">Myiarchus crinitus</t>
@@ -1279,7 +1279,7 @@
     <t xml:space="preserve">Ardea alba</t>
   </si>
   <si>
-    <t xml:space="preserve">Great Horned Owl </t>
+    <t xml:space="preserve">Great Horned Owl</t>
   </si>
   <si>
     <t xml:space="preserve">Bubo virginianus</t>
@@ -1312,13 +1312,13 @@
     <t xml:space="preserve">Не можна підкласти більше карт, ніж є фішок дій в ареалі.</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater Prairie Chicken </t>
+    <t xml:space="preserve">Greater Prairie Chicken</t>
   </si>
   <si>
     <t xml:space="preserve">Tympanuchus cupido</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater Roadrunner </t>
+    <t xml:space="preserve">Greater Roadrunner</t>
   </si>
   <si>
     <t xml:space="preserve">Geococcyx californianus</t>
@@ -1438,13 +1438,13 @@
     <t xml:space="preserve">Columbina inca</t>
   </si>
   <si>
-    <t xml:space="preserve">Indigo Bunting </t>
+    <t xml:space="preserve">Indigo Bunting</t>
   </si>
   <si>
     <t xml:space="preserve">Passerina cyanea</t>
   </si>
   <si>
-    <t xml:space="preserve">Juniper Titmouse </t>
+    <t xml:space="preserve">Juniper Titmouse</t>
   </si>
   <si>
     <t xml:space="preserve">Baeolophus ridgwayi</t>
@@ -1462,7 +1462,7 @@
     <t xml:space="preserve">Rallus elegans</t>
   </si>
   <si>
-    <t xml:space="preserve">Lazuli Bunting </t>
+    <t xml:space="preserve">Lazuli Bunting</t>
   </si>
   <si>
     <t xml:space="preserve">Passerina amoena</t>
@@ -1558,19 +1558,19 @@
     <t xml:space="preserve">Лунь лучний</t>
   </si>
   <si>
-    <t xml:space="preserve">Mountain Bluebird </t>
+    <t xml:space="preserve">Mountain Bluebird</t>
   </si>
   <si>
     <t xml:space="preserve">Sialia currucoides</t>
   </si>
   <si>
-    <t xml:space="preserve">Mountain Chickadee </t>
+    <t xml:space="preserve">Mountain Chickadee</t>
   </si>
   <si>
     <t xml:space="preserve">Poecile gambeli</t>
   </si>
   <si>
-    <t xml:space="preserve">Mourning Dove </t>
+    <t xml:space="preserve">Mourning Dove</t>
   </si>
   <si>
     <t xml:space="preserve">Zenaida macroura</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">Colinus virginianus</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern Cardinal </t>
+    <t xml:space="preserve">Northern Cardinal</t>
   </si>
   <si>
     <t xml:space="preserve">Cardinalis cardinalis</t>
@@ -1668,19 +1668,19 @@
     <t xml:space="preserve">Яструб великий</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern Harrier </t>
+    <t xml:space="preserve">Northern Harrier</t>
   </si>
   <si>
     <t xml:space="preserve">Circus cyaneus</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern Mockingbird </t>
+    <t xml:space="preserve">Northern Mockingbird</t>
   </si>
   <si>
     <t xml:space="preserve">Mimus polyglottos</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern Shoveler </t>
+    <t xml:space="preserve">Northern Shoveler</t>
   </si>
   <si>
     <t xml:space="preserve">Spatula clypeata</t>
@@ -1692,7 +1692,7 @@
     <t xml:space="preserve">Pandion haliaetus</t>
   </si>
   <si>
-    <t xml:space="preserve">Painted Bunting </t>
+    <t xml:space="preserve">Painted Bunting</t>
   </si>
   <si>
     <t xml:space="preserve">Passerina ciris</t>
@@ -1719,19 +1719,19 @@
     <t xml:space="preserve">Ви отримуєте [seed] незалежно від того, який корм забрали з годівниці.</t>
   </si>
   <si>
-    <t xml:space="preserve">Peregrine Falcon </t>
+    <t xml:space="preserve">Peregrine Falcon</t>
   </si>
   <si>
     <t xml:space="preserve">Falco peregrinus</t>
   </si>
   <si>
-    <t xml:space="preserve">Pied-Billed Grebe </t>
+    <t xml:space="preserve">Pied-Billed Grebe</t>
   </si>
   <si>
     <t xml:space="preserve">Podilymbus podiceps</t>
   </si>
   <si>
-    <t xml:space="preserve">Pileated Woodpecker </t>
+    <t xml:space="preserve">Pileated Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Dryocopus pileatus</t>
@@ -1749,7 +1749,7 @@
     <t xml:space="preserve">Protonotaria citrea</t>
   </si>
   <si>
-    <t xml:space="preserve">Purple Gallinule </t>
+    <t xml:space="preserve">Purple Gallinule</t>
   </si>
   <si>
     <t xml:space="preserve">Porphyrio martinicus</t>
@@ -1803,7 +1803,7 @@
     <t xml:space="preserve">поцупте 1 [invertebrate] із запасу іншого гравця і зробіть запас на цій карті. Цей гравець отримує 1 [die] з годівниці.</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Bellied Woodpecker </t>
+    <t xml:space="preserve">Red-Bellied Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Melanerpes carolinus</t>
@@ -1815,25 +1815,25 @@
     <t xml:space="preserve">Mergus serrator</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Breasted Nuthatch </t>
+    <t xml:space="preserve">Red-Breasted Nuthatch</t>
   </si>
   <si>
     <t xml:space="preserve">Sitta canadensis</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Cockaded Woodpecker </t>
+    <t xml:space="preserve">Red-Cockaded Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Picoides borealis</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Eyed Vireo </t>
+    <t xml:space="preserve">Red-Eyed Vireo</t>
   </si>
   <si>
     <t xml:space="preserve">Vireo olivaceus</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Headed Woodpecker </t>
+    <t xml:space="preserve">Red-Headed Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Melanerpes erythrocephalus</t>
@@ -1851,19 +1851,19 @@
     <t xml:space="preserve">Покладіть 1 [egg] на кожного птаха в цій колонці (включно з цим).</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Shouldered Hawk </t>
+    <t xml:space="preserve">Red-Shouldered Hawk</t>
   </si>
   <si>
     <t xml:space="preserve">Buteo lineatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Tailed Hawk </t>
+    <t xml:space="preserve">Red-Tailed Hawk</t>
   </si>
   <si>
     <t xml:space="preserve">Buteo jamaicensis</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Winged Blackbird </t>
+    <t xml:space="preserve">Red-Winged Blackbird</t>
   </si>
   <si>
     <t xml:space="preserve">Agelaius phoeniceus</t>
@@ -1875,19 +1875,19 @@
     <t xml:space="preserve">Larus delawarensis</t>
   </si>
   <si>
-    <t xml:space="preserve">Rose-Breasted Grosbeak </t>
+    <t xml:space="preserve">Rose-Breasted Grosbeak</t>
   </si>
   <si>
     <t xml:space="preserve">Pheucticus ludovicianus</t>
   </si>
   <si>
-    <t xml:space="preserve">Roseate Spoonbill </t>
+    <t xml:space="preserve">Roseate Spoonbill</t>
   </si>
   <si>
     <t xml:space="preserve">Platalea ajaja</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruby-Crowned Kinglet </t>
+    <t xml:space="preserve">Ruby-Crowned Kinglet</t>
   </si>
   <si>
     <t xml:space="preserve">Regulus calendula</t>
@@ -1923,7 +1923,7 @@
     <t xml:space="preserve">Antigone canadensis</t>
   </si>
   <si>
-    <t xml:space="preserve">Savannah Sparrow </t>
+    <t xml:space="preserve">Savannah Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Passerculus sandwichensis</t>
@@ -1956,7 +1956,7 @@
     <t xml:space="preserve">Callipepla squamata</t>
   </si>
   <si>
-    <t xml:space="preserve">Scissor-Tailed Flycatcher </t>
+    <t xml:space="preserve">Scissor-Tailed Flycatcher</t>
   </si>
   <si>
     <t xml:space="preserve">Tyrannus forficatus</t>
@@ -2005,7 +2005,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Snowy Egret </t>
+    <t xml:space="preserve">Snowy Egret</t>
   </si>
   <si>
     <t xml:space="preserve">Egretta thula</t>
@@ -2020,7 +2020,7 @@
     <t xml:space="preserve">Сова біла</t>
   </si>
   <si>
-    <t xml:space="preserve">Song Sparrow </t>
+    <t xml:space="preserve">Song Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Melospiza melodia</t>
@@ -2032,13 +2032,13 @@
     <t xml:space="preserve">Strix occidentalis</t>
   </si>
   <si>
-    <t xml:space="preserve">Spotted Sandpiper </t>
+    <t xml:space="preserve">Spotted Sandpiper</t>
   </si>
   <si>
     <t xml:space="preserve">Actitis macularius</t>
   </si>
   <si>
-    <t xml:space="preserve">Spotted Towhee </t>
+    <t xml:space="preserve">Spotted Towhee</t>
   </si>
   <si>
     <t xml:space="preserve">Pipilo maculatus</t>
@@ -2086,7 +2086,7 @@
     <t xml:space="preserve">Скиньте 1 [seed] зі свого запасу. Якщо зробили це, покладіть 2 [egg] на цього птаха.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tree Swallow </t>
+    <t xml:space="preserve">Tree Swallow</t>
   </si>
   <si>
     <t xml:space="preserve">Tachycineta bicolor</t>
@@ -2116,7 +2116,7 @@
     <t xml:space="preserve">Chaetura vauxi</t>
   </si>
   <si>
-    <t xml:space="preserve">Violet-Green Swallow </t>
+    <t xml:space="preserve">Violet-Green Swallow</t>
   </si>
   <si>
     <t xml:space="preserve">Tachycineta thalassina</t>
@@ -2167,19 +2167,19 @@
     <t xml:space="preserve">Якщо всі кубики в годівниці лежать однаковими гранями догори, ви можете оновити годівницю перед отриманням [die].</t>
   </si>
   <si>
-    <t xml:space="preserve">White-Breasted Nuthatch </t>
+    <t xml:space="preserve">White-Breasted Nuthatch</t>
   </si>
   <si>
     <t xml:space="preserve">Sitta carolinensis</t>
   </si>
   <si>
-    <t xml:space="preserve">White-Crowned Sparrow </t>
+    <t xml:space="preserve">White-Crowned Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Zonotrichia leucophrys</t>
   </si>
   <si>
-    <t xml:space="preserve">White-Faced Ibis </t>
+    <t xml:space="preserve">White-Faced Ibis</t>
   </si>
   <si>
     <t xml:space="preserve">Plegadis chihi</t>
@@ -2245,7 +2245,7 @@
     <t xml:space="preserve">Mycteria americana</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow-Bellied Sapsucker </t>
+    <t xml:space="preserve">Yellow-Bellied Sapsucker</t>
   </si>
   <si>
     <t xml:space="preserve">Sphyrapicus varius</t>
@@ -2257,19 +2257,19 @@
     <t xml:space="preserve">Coccyzus americanus</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow-Breasted Chat </t>
+    <t xml:space="preserve">Yellow-Breasted Chat</t>
   </si>
   <si>
     <t xml:space="preserve">Icteria virens</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow-Headed Blackbird </t>
+    <t xml:space="preserve">Yellow-Headed Blackbird</t>
   </si>
   <si>
     <t xml:space="preserve">Xanthocephalus xanthocephalus</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow-Rumped Warbler </t>
+    <t xml:space="preserve">Yellow-Rumped Warbler</t>
   </si>
   <si>
     <t xml:space="preserve">Setophaga coronata</t>
@@ -2871,7 +2871,7 @@
     <t xml:space="preserve">Пінон новозеландський</t>
   </si>
   <si>
-    <t xml:space="preserve">якщо гравець [ліворуч] має [nectar] у своєму запасі, отримайте 1 [nectar] із загального запасу.</t>
+    <t xml:space="preserve">якщо гравець ліворуч має [nectar] у своєму запасі, отримайте 1 [nectar] із загального запасу.</t>
   </si>
   <si>
     <t xml:space="preserve">Korimako</t>
@@ -2911,7 +2911,7 @@
         <family val="0"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">fish[ </t>
+      <t xml:space="preserve">fish] </t>
     </r>
     <r>
       <rPr>
@@ -3252,7 +3252,7 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">якщо гравець [праворуч] має [</t>
+      <t xml:space="preserve">якщо гравець праворуч має [</t>
     </r>
     <r>
       <rPr>
@@ -3407,7 +3407,7 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">якщо гравець [ліворуч] має [</t>
+      <t xml:space="preserve">якщо гравець ліворуч має [</t>
     </r>
     <r>
       <rPr>
@@ -3736,7 +3736,7 @@
     <t xml:space="preserve">Лірохвіст австралійський</t>
   </si>
   <si>
-    <t xml:space="preserve">скопіюйте коричневу властивість птаха в [forest] гравця [праворуч].</t>
+    <t xml:space="preserve">скопіюйте коричневу властивість птаха в [forest] гравця праворуч.</t>
   </si>
   <si>
     <t xml:space="preserve">Скопійована властивість має бути коричневою («При активації»).</t>
@@ -3763,7 +3763,7 @@
     <t xml:space="preserve">Пое</t>
   </si>
   <si>
-    <t xml:space="preserve">скопіюйте коричневу властивість птаха в [forest] гравця [ліворуч].</t>
+    <t xml:space="preserve">скопіюйте коричневу властивість птаха в [forest] гравця ліворуч.</t>
   </si>
   <si>
     <t xml:space="preserve">Wedge-Tailed Eagle</t>
@@ -3884,6 +3884,549 @@
   </si>
   <si>
     <t xml:space="preserve">Скинуті карти бонусів лишаються окремо від колоди бонусів.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Emerald Dove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalcophaps indica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Koel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eudynamys scolopaceus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Tit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanistes cyanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baya Weaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ploceus philippinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bearded Reedling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panurus biarmicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Drongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicrurus macrocercus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Stork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciconia nigra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-Naped Oriole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriolus chinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Rock-Thrush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monticola solitarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahminy Kite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haliastur indus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brambling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fringilla montifringilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Shrike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanius cristatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Green Magpie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cissa chinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Iora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aegithina tiphia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Myna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acridotheres tristis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Sandpiper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actitis hypoleucos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Tailorbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orthotomus sutorius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Teal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anas crecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coppersmith Barbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psilopogon haemacephalus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crested Ibis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nipponia nippon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crested Lark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galerida cristata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desert Finch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodospiza obsoleta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desert Wheatear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oenanthe deserti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurasian Coot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulica atra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurasian Eagle-Owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubo bubo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurasian Hoopoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upupa epops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurasian Kestrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falco tinnunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurasian Marsh-Harrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circus aeruginosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurasian Treecreeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certhia familiaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire-Fronted Serin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serinus pusillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Owlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athene blewitti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Pheasant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrysolophus pictus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graceful Prinia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prinia gracilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandala coelicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray Wagtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motacilla cinerea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Cormorant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phalacrocorax carbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hornbill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buceros bicornis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Indian Bustard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardeotis nigriceps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Spotted Woodpecker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendrocopos major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Adjutant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leptoptilos dubius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Bee-Eater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merops orientalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Pheasant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phasianus versicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himalayan Monal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lophophorus impejanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Crow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corvus splendens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibisbill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibidorhyncha struthersii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Peafowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavo cristatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Vulture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyps indicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large-Billed Crow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corvus macrorhynchos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Egret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egretta garzetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Grebe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tachybaptus ruficollis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Ringed Plover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charadrius dubius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandarin Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aix galericulata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olive-Backed Sunbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinnyris jugularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriental Bay-Owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phodilus badius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriental Magpie-Robin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copsychus saularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippine Eagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pithecophaga jefferyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plumbeous Redstart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenicurus fuliginosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple Heron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardea purpurea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Avadavat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amandava amandava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Junglefowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallus gallus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red-Crowned Crane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grus japonensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red-Vented Bulbul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pycnonotus cafer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red-Wattled Lapwing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanellus indicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinoceros Auklet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerorhinca monocerata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Pigeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columba livia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corvus frugilegus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose-Ringed Parakeet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psittacula krameri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosy Starling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastor roseus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruddy Shelduck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tadorna ferruginea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarus Crane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigone antigone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyr Tragopan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tragopan satyra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaly-Breasted Munia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lonchura punctulata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Minivet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pericrocotus cinnamomeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mergellus albellus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoon-Billed Sandpiper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidris pygmaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spotted Dove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streptopelia chinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka Blue-Magpie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urocissa ornata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka Frogmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batrachostomus moniliger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stork-Billed Kingfisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelargopsis capensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trumpeter Finch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucanetes githagineus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linaria flavirostris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verditer Flycatcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eumyias thalassinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violet Cuckoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrysococcyx xanthorhynchus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Browed Tit-Warbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leptopoecile sophiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Crested Laughingthrush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrulax leucolophus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Headed Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxyura leucocephala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-Throated Kingfisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halcyon smyrnensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willow Tit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poecile montanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow Bittern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ixobrychus sinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zebra Dove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopelia striata</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -4508,6 +5051,45 @@
   </si>
   <si>
     <t xml:space="preserve">Птахи в [wetland] з послідовним збільшенням або зменшенням розмаху крил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avian Theriogenologist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endangered Species Protector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Population Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland Population Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pellet Dissector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Clutch Specialist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wetland Population Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wetland Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Feeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[automa] Avid Asian Avian Admirer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[automa] Rare Species Lister</t>
   </si>
   <si>
     <t xml:space="preserve">Translated</t>
@@ -4813,7 +5395,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4821,7 +5403,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4829,6 +5411,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF4D4946"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4941,6 +5524,112 @@
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -4949,15 +5638,15 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F341" activeCellId="0" sqref="F341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.52"/>
@@ -12806,275 +13495,1265 @@
       <c r="I357" s="5"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D358" s="3"/>
+      <c r="A358" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D359" s="3"/>
+      <c r="A359" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D360" s="3"/>
+      <c r="A360" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D361" s="3"/>
+      <c r="A361" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D362" s="3"/>
+      <c r="A362" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D363" s="3"/>
+      <c r="A363" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D364" s="3"/>
+      <c r="A364" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>1111</v>
+      </c>
       <c r="E364" s="7"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D365" s="3"/>
+      <c r="A365" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D366" s="3"/>
+      <c r="A366" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D367" s="3"/>
+      <c r="A367" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D368" s="3"/>
+      <c r="A368" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D369" s="3"/>
+      <c r="A369" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D370" s="3"/>
+      <c r="A370" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D371" s="3"/>
+      <c r="A371" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D372" s="3"/>
+      <c r="A372" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D373" s="3"/>
+      <c r="A373" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D374" s="3"/>
+      <c r="A374" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D375" s="3"/>
+      <c r="A375" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D376" s="3"/>
+      <c r="A376" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D377" s="3"/>
+      <c r="A377" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D378" s="3"/>
+      <c r="A378" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D379" s="3"/>
+      <c r="A379" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D380" s="3"/>
+      <c r="A380" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D381" s="3"/>
+      <c r="A381" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D382" s="3"/>
+      <c r="A382" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D383" s="3"/>
+      <c r="A383" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D384" s="3"/>
+      <c r="A384" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D385" s="3"/>
+      <c r="A385" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D386" s="3"/>
+      <c r="A386" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D387" s="3"/>
+      <c r="A387" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D388" s="3"/>
+      <c r="A388" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D389" s="3"/>
+      <c r="A389" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D390" s="3"/>
+      <c r="A390" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D391" s="3"/>
+      <c r="A391" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D392" s="3"/>
+      <c r="A392" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D393" s="3"/>
+      <c r="A393" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D394" s="3"/>
+      <c r="A394" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D395" s="3"/>
+      <c r="A395" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D396" s="3"/>
+      <c r="A396" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D397" s="3"/>
+      <c r="A397" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D398" s="3"/>
+      <c r="A398" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D399" s="3"/>
+      <c r="A399" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D400" s="3"/>
+      <c r="A400" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D401" s="3"/>
+      <c r="A401" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D402" s="3"/>
+      <c r="A402" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D403" s="3"/>
+      <c r="A403" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D404" s="3"/>
+      <c r="A404" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D405" s="3"/>
+      <c r="A405" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D406" s="3"/>
+      <c r="A406" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D407" s="3"/>
+      <c r="A407" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D408" s="3"/>
+      <c r="A408" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D409" s="3"/>
+      <c r="A409" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D410" s="3"/>
+      <c r="A410" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D411" s="3"/>
+      <c r="A411" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D412" s="3"/>
+      <c r="A412" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D413" s="3"/>
+      <c r="A413" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D414" s="3"/>
+      <c r="A414" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D415" s="3"/>
+      <c r="A415" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D416" s="3"/>
+      <c r="A416" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D417" s="3"/>
+      <c r="A417" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D418" s="3"/>
+      <c r="A418" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D419" s="3"/>
+      <c r="A419" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D420" s="3"/>
+      <c r="A420" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D421" s="3"/>
+      <c r="A421" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D422" s="3"/>
+      <c r="A422" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D423" s="3"/>
+      <c r="A423" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D424" s="3"/>
+      <c r="A424" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D425" s="3"/>
+      <c r="A425" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D426" s="3"/>
+      <c r="A426" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D427" s="3"/>
+      <c r="A427" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D428" s="3"/>
+      <c r="A428" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D429" s="3"/>
+      <c r="A429" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D430" s="3"/>
+      <c r="A430" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D431" s="3"/>
+      <c r="A431" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D432" s="3"/>
+      <c r="A432" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D433" s="3"/>
+      <c r="A433" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D434" s="3"/>
+      <c r="A434" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D435" s="3"/>
+      <c r="A435" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D436" s="3"/>
+      <c r="A436" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D437" s="3"/>
+      <c r="A437" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D438" s="3"/>
+      <c r="A438" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D439" s="3"/>
+      <c r="A439" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D440" s="3"/>
+      <c r="A440" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D441" s="3"/>
+      <c r="A441" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D442" s="3"/>
+      <c r="A442" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D443" s="3"/>
+      <c r="A443" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D444" s="3"/>
+      <c r="A444" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D445" s="3"/>
+      <c r="A445" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D446" s="3"/>
+      <c r="A446" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D447" s="3"/>
+      <c r="A447" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>1111</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13098,9 +14777,9 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13126,16 +14805,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1109</v>
+        <v>1290</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1110</v>
+        <v>1291</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1111</v>
+        <v>1292</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1112</v>
+        <v>1293</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -13152,15 +14831,15 @@
         <v>13</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1113</v>
+        <v>1294</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1114</v>
+        <v>1295</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="15"/>
       <c r="H2" s="14" t="s">
-        <v>1115</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13168,7 +14847,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1116</v>
+        <v>1297</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>13</v>
@@ -13184,22 +14863,22 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1117</v>
+        <v>1298</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1118</v>
+        <v>1299</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1119</v>
+        <v>1300</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1120</v>
+        <v>1301</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>1121</v>
+        <v>1302</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -13208,20 +14887,20 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1122</v>
+        <v>1303</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1123</v>
+        <v>1304</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1124</v>
+        <v>1305</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="15" t="s">
-        <v>1125</v>
+        <v>1306</v>
       </c>
       <c r="H5" s="5"/>
     </row>
@@ -13230,7 +14909,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1126</v>
+        <v>1307</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>13</v>
@@ -13246,7 +14925,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1127</v>
+        <v>1308</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>13</v>
@@ -13262,7 +14941,7 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1128</v>
+        <v>1309</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>13</v>
@@ -13284,15 +14963,15 @@
         <v>13</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1129</v>
+        <v>1310</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1130</v>
+        <v>1311</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="15"/>
       <c r="H9" s="14" t="s">
-        <v>1131</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13300,20 +14979,20 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1132</v>
+        <v>1313</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1133</v>
+        <v>1314</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1134</v>
+        <v>1315</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="15" t="s">
-        <v>1135</v>
+        <v>1316</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -13322,20 +15001,20 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1136</v>
+        <v>1317</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1137</v>
+        <v>1318</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1138</v>
+        <v>1319</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="15" t="s">
-        <v>1139</v>
+        <v>1320</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -13344,7 +15023,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1140</v>
+        <v>1321</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>13</v>
@@ -13360,7 +15039,7 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1141</v>
+        <v>1322</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -13376,22 +15055,22 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1142</v>
+        <v>1323</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1143</v>
+        <v>1324</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1144</v>
+        <v>1325</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>1145</v>
+        <v>1326</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>1146</v>
+        <v>1327</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -13400,7 +15079,7 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1147</v>
+        <v>1328</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>13</v>
@@ -13416,7 +15095,7 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1148</v>
+        <v>1329</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -13432,7 +15111,7 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1149</v>
+        <v>1330</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>13</v>
@@ -13448,7 +15127,7 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1150</v>
+        <v>1331</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>13</v>
@@ -13470,15 +15149,15 @@
         <v>13</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1151</v>
+        <v>1332</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1152</v>
+        <v>1333</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="15"/>
       <c r="H19" s="14" t="s">
-        <v>1153</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13486,7 +15165,7 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1154</v>
+        <v>1335</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>13</v>
@@ -13502,7 +15181,7 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1155</v>
+        <v>1336</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>13</v>
@@ -13518,7 +15197,7 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1156</v>
+        <v>1337</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>13</v>
@@ -13534,7 +15213,7 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1157</v>
+        <v>1338</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>13</v>
@@ -13550,7 +15229,7 @@
         <v>1022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1158</v>
+        <v>1339</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>13</v>
@@ -13572,15 +15251,15 @@
         <v>13</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>1159</v>
+        <v>1340</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1160</v>
+        <v>1341</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="15"/>
       <c r="H25" s="14" t="s">
-        <v>1161</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13588,7 +15267,7 @@
         <v>1024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1162</v>
+        <v>1343</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>13</v>
@@ -13604,7 +15283,7 @@
         <v>1025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1163</v>
+        <v>1344</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>13</v>
@@ -13620,7 +15299,7 @@
         <v>1026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1164</v>
+        <v>1345</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>13</v>
@@ -13636,7 +15315,7 @@
         <v>1027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1165</v>
+        <v>1346</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>13</v>
@@ -13652,7 +15331,7 @@
         <v>1028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1166</v>
+        <v>1347</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>13</v>
@@ -13668,7 +15347,7 @@
         <v>1029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1167</v>
+        <v>1348</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>13</v>
@@ -13684,7 +15363,7 @@
         <v>1030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1168</v>
+        <v>1349</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>13</v>
@@ -13700,22 +15379,22 @@
         <v>1032</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1169</v>
+        <v>1350</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1170</v>
+        <v>1351</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>1171</v>
+        <v>1352</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1172</v>
+        <v>1353</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1173</v>
+        <v>1354</v>
       </c>
       <c r="H33" s="5"/>
     </row>
@@ -13724,20 +15403,20 @@
         <v>1033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1174</v>
+        <v>1355</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1175</v>
+        <v>1356</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>1176</v>
+        <v>1357</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="4" t="s">
-        <v>1177</v>
+        <v>1358</v>
       </c>
       <c r="H34" s="5"/>
     </row>
@@ -13746,23 +15425,23 @@
         <v>1034</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1178</v>
+        <v>1359</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>703</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1179</v>
+        <v>1360</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>1180</v>
+        <v>1361</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="17" t="s">
-        <v>1181</v>
+        <v>1362</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>1182</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13770,23 +15449,23 @@
         <v>1035</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1183</v>
+        <v>1364</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>703</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>1184</v>
+        <v>1365</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1185</v>
+        <v>1366</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="17" t="s">
-        <v>1181</v>
+        <v>1362</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>1182</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13794,25 +15473,25 @@
         <v>1036</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1186</v>
+        <v>1367</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>703</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1187</v>
+        <v>1368</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>1188</v>
+        <v>1369</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1189</v>
+        <v>1370</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>1190</v>
+        <v>1371</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>1191</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13820,25 +15499,25 @@
         <v>1037</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1192</v>
+        <v>1373</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>703</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>1193</v>
+        <v>1374</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1194</v>
+        <v>1375</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1195</v>
+        <v>1376</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>1196</v>
+        <v>1377</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>1197</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13846,76 +15525,167 @@
         <v>1038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1198</v>
+        <v>1379</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>703</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1199</v>
+        <v>1380</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>1200</v>
+        <v>1381</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="17" t="s">
-        <v>1181</v>
+        <v>1362</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>1182</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="2" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="2" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="2" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="2" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="2" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="15" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="2" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="15" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="2" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="2" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="2" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>1111</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13953,55 +15723,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1201</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1202</v>
+        <v>1396</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1203</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1204</v>
+        <v>1398</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1205</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1206</v>
+        <v>1400</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1207</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1208</v>
+        <v>1402</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1209</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1210</v>
+        <v>1404</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1211</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1212</v>
+        <v>1406</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1213</v>
+        <v>1407</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/uk.xlsx
+++ b/i18n/uk.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1410">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -5101,19 +5103,19 @@
     <t xml:space="preserve">При активації</t>
   </si>
   <si>
-    <t xml:space="preserve">WHEN PLAYED</t>
+    <t xml:space="preserve">WHEN PLAYED</t>
   </si>
   <si>
     <t xml:space="preserve">При розіграші</t>
   </si>
   <si>
-    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
+    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
   </si>
   <si>
     <t xml:space="preserve">Раз між ходами</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUND END</t>
+    <t xml:space="preserve">ROUND END</t>
   </si>
   <si>
     <t xml:space="preserve">Наприкінці раунду</t>
@@ -5125,18 +5127,27 @@
     <t xml:space="preserve">В конце игры</t>
   </si>
   <si>
-    <t xml:space="preserve">of cards</t>
+    <t xml:space="preserve">of cards</t>
   </si>
   <si>
     <t xml:space="preserve">карт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show bonus cards match symbols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -5305,7 +5316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5380,6 +5391,22 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5477,6 +5504,10 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5637,7 +5668,7 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F341" activeCellId="0" sqref="F341"/>
@@ -15709,7 +15740,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15726,7 +15757,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1396</v>
       </c>
@@ -15734,7 +15765,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1398</v>
       </c>
@@ -15742,7 +15773,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>1400</v>
       </c>
@@ -15750,7 +15781,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>1402</v>
       </c>
@@ -15766,7 +15797,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>1406</v>
       </c>
@@ -15786,4 +15817,51 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B2" s="22" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/i18n/uk.xlsx
+++ b/i18n/uk.xlsx
@@ -5,16 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Goals" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Other" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Goals!$A:$F</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="1513">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -5094,6 +5096,431 @@
     <t xml:space="preserve">[automa] Rare Species Lister</t>
   </si>
   <si>
+    <t xml:space="preserve">Explanatory Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavity Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Cavity Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Bowl Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Ground Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Platform Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets of Eggs in 3 Habitats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food in Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корм у запасі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[wild] В ОСОБИСТОМУ ЗАПАСІ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість жетонів корму у вашому особистому запасі.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Cards in Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карти птахів у руці</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[card] В РУЦІ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість карт птахів у вашій руці.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth over 4 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Птахи, які приносять більше 4 балів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] ЯКІ ПРИНОСЯТЬ &gt;4[point]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість зіграних вами птахів, які приносять більше 4 балів.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with No Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Птахи без яєць</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] БЕЗ [egg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість зіграних вами птахів, які не мають яєць на момент підрахунку балів за цю ціль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds in 1 Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Птахи в одному ряду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] В ОДНОМУ РЯДУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість зіграних вами птахів у найбільш заселеному ареалі.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заповнені колонки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАПОВНЕНІ КОЛОНКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість колонок, де всі три клітинки зайняті картами птахів.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коричневі властивості</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість зіграних вами птахів, які мають коричневі властивості «При активації».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White &amp; No Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безбарвні або без властивостей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безбарвні та без властивостей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість зіграних вами птахів, які або не мають властивостей, або мають властивості «При розіграші».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with Tucked Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[flocking] ПТАХИ З ПІДКЛАДЕНИМИ КАРТАМИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кількість зіграних вами птахів, які мають хоча б одну підкладену карту.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Cost of Played Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вартість зіграних птахів у кормі</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11.5"/>
+        <color rgb="FF49423E"/>
+        <rFont val="SiliciStrong-BoldMarkers"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ВАРТІСТЬ У КОРМІ ЗІГРАНИХ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [bird]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Порахуйте вартість у кормі ваших птахів. Враховуйте тільки 1 корм птахам, які мають вибір корму у своїй вартості.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безхребетні у вартості в кормі ваших птахів.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[invertebrate] У ВАРТОСТІ В КОРМІ ВАШИХ ПТАХІВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Порахуйте кількість символів корму у вартості в кормі на картах ваших птахів. Наприклад, для цілі «[fruit]+[seed] у вартості в кормі ваших птахів» продивіться верхні ліві кути карт, що викладені у ваш заповідник, і порахуйте усі [fruit] плюс усі [seed]. Якщо птах має «[fruit]/[seed]» у вартості (ви сплатили АБО при розіграші птаха), для цілі раунду рахується тільки один корм. Не рахуйте [wild] або [nectar].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фрукти + зерно у вартості в кормі ваших птахів.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[fruit] + [seed] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">У ВАРТОСТІ В КОРМІ ВАШИХ ПТАХІВ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гризуни + риба у вартості в кормі ваших птахів.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[rodent] + [fish] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">У ВАРТОСТІ В КОРМІ ВАШИХ ПТАХІВ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Без цілей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЗ ЦІЛЕЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не рахуйте бали наприкінці цього раунду. Збережіть фішку дії. Всі наступні раунди матимуть на 1 дію більше, ніж мали б.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дзьоб вказує ліворуч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[beak-left] ДЗЬОБ ВКАЗУЄ ЛІВОРУЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Такі цілі рахують карти з птахами, чий дзьоб повернутий у вказаному напрямку. Птахи, чиї дзьоби спрямовані прямо вперед (або прямо догори), не враховуються для жодної з цих цілей.&lt;br&gt;Ці цілі додали, щоб у гравців був додатковий привід уважніше роздивитися ілюстрації. Хоча ми переглянули всі карти й вирішили, що визначити напрям дзьоба буде не важко, якщо у вас виникнуть із цим труднощі, можете не використовувати ці жетони цілей у грі. Ось декілька карт, для яких потрібні роз’яснення:&lt;br&gt;&lt;ul&gt;&lt;li&gt;Пісочник криводзьобий дивиться вперед, але його дзьоб вказує ліворуч.&lt;/li&gt;&lt;li&gt;На карті гагари полярної (з базової гри) два птахи, що дивляться в обидва боки, тож вона враховується для обох цілей.&lt;/li&gt;&lt;li&gt;На карті пірникози великої (з «Крил Європи») два птахи, що дивляться в один бік; вона враховується як одна карта з птахом, що дивиться ліворуч.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Такі карти птахів не дивляться ані ліворуч, ані праворуч:&lt;br&gt;&lt;b&gt;БАЗОВА ГРА&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Сипуха&lt;/li&gt;&lt;li&gt;Сова неоарктична&lt;/li&gt;&lt;li&gt;Сич американський&lt;/li&gt;&lt;li&gt;Кондор каліфорнійський&lt;/li&gt;&lt;li&gt;Сплюшка північна&lt;/li&gt;&lt;li&gt;Пугач віргінський&lt;/li&gt;&lt;li&gt;Жайворонок рогатий&lt;/li&gt;&lt;li&gt;Сова плямиста&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;ЄВРОПА&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Сич хатній&lt;/li&gt;&lt;li&gt;Сова біла&lt;/li&gt;&lt;li&gt;Підкоришник короткопалий&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;ОКЕАНІЯ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Еготело австралійський&lt;/li&gt;&lt;li&gt;Какапо&lt;/li&gt;&lt;li&gt;Сова-голконіг руда&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;АЗІЯ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Bearded Reedling&lt;/li&gt;&lt;li&gt;Eurasian Eagle-Owl&lt;/li&gt;&lt;li&gt;Forest Owlet&lt;/li&gt;&lt;li&gt;Oriental Bay-Owl&lt;/li&gt;&lt;li&gt;Spoon-Billed Sandpiper&lt;/li&gt;&lt;li&gt;Sri Lanka Frogmouth&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дзьоб вказує праворуч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[beak-left] ДЗЬОБ ВКАЗУЄ ПРАВОРУЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubes on "Play a Bird"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фішки на «Зіграйте птаха»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cube] ФІШКИ НА «ЗІГРАЙТЕ ПТАХА»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Порахуйте кількість фішок дій, які ви поклали на «Зіграйте птаха» у цьому раунді. Зверніть увагу, що для цього потрібно залишати фішки в рядках, де ви їх зіграли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[bird] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF49423E"/>
+        <rFont val="SiliciStrong-BoldMarkers"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ЯКІ ПРИНОСЯТЬ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ≤3[point]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Matching Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nest Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] НА [bowl][cavity][ground][platform]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Symbols</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[duet-token] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">НА</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [fish][fruit][rodent][seed][invertebrate]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not on Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] ПО КРАЮ МАПИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokens in Any One Horizontal Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] У БУДЬ-ЯКОМУ ГОРИЗОНТАЛЬНОМУ РЯДУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Rows with at Least One of Your Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewest Tokens on Bonus Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАЙМЕНШЕ [duet-token] У КОМІРКАХ БОНУСІВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] В [forest]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] В [grassland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] В [wetland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Duet Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВСЬОГО [duet-token] НА МАПІ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Translated</t>
   </si>
   <si>
@@ -5149,7 +5576,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5273,6 +5700,28 @@
       <family val="0"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF49423E"/>
+      <name val="SiliciStrong-BoldMarkers"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11.5"/>
+      <color rgb="FF49423E"/>
+      <name val="SiliciStrong-BoldMarkers"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF49423E"/>
+      <name val="SiliciStrong-BoldMarkers"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5316,7 +5765,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5393,19 +5842,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5418,7 +5871,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5438,6 +5891,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF4D4946"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF49423E"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -5496,17 +5957,21 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF4D4946"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF4D4946"/>
+      <rgbColor rgb="FF49423E"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -5669,9 +6134,11 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F341" activeCellId="0" sqref="F341"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14808,9 +15275,11 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15737,10 +16206,836 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="51.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="15" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F47" s="15"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A:F"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15754,55 +17049,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1395</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1396</v>
+        <v>1499</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1397</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1398</v>
+        <v>1501</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1399</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1400</v>
+        <v>1503</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1401</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1402</v>
+        <v>1505</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1403</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1404</v>
+        <v>1507</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1405</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1406</v>
+        <v>1509</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1407</v>
+        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -15819,36 +17114,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1408</v>
+      <c r="B1" s="22" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B2" s="22" t="b">
+      <c r="A2" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B2" s="23" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/i18n/uk.xlsx
+++ b/i18n/uk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
@@ -5683,7 +5683,7 @@
     <t xml:space="preserve">[beak-left] ДЗЬОБ ВКАЗУЄ ЛІВОРУЧ</t>
   </si>
   <si>
-    <t xml:space="preserve">Такі цілі рахують карти з птахами, чий дзьоб повернутий у вказаному напрямку. Птахи, чиї дзьоби спрямовані прямо вперед (або прямо догори), не враховуються для жодної з цих цілей.&lt;br&gt;Ці цілі додали, щоб у гравців був додатковий привід уважніше роздивитися ілюстрації. Хоча ми переглянули всі карти й вирішили, що визначити напрям дзьоба буде не важко, якщо у вас виникнуть із цим труднощі, можете не використовувати ці жетони цілей у грі. Ось декілька карт, для яких потрібні роз’яснення:&lt;br&gt;&lt;ul&gt;&lt;li&gt;Пісочник криводзьобий дивиться вперед, але його дзьоб вказує ліворуч.&lt;/li&gt;&lt;li&gt;На карті гагари полярної (з базової гри) два птахи, що дивляться в обидва боки, тож вона враховується для обох цілей.&lt;/li&gt;&lt;li&gt;На карті пірникози великої (з «Крил Європи») два птахи, що дивляться в один бік; вона враховується як одна карта з птахом, що дивиться ліворуч.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Такі карти птахів не дивляться ані ліворуч, ані праворуч:&lt;br&gt;&lt;b&gt;БАЗОВА ГРА&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Сипуха&lt;/li&gt;&lt;li&gt;Сова неоарктична&lt;/li&gt;&lt;li&gt;Сич американський&lt;/li&gt;&lt;li&gt;Кондор каліфорнійський&lt;/li&gt;&lt;li&gt;Сплюшка північна&lt;/li&gt;&lt;li&gt;Пугач віргінський&lt;/li&gt;&lt;li&gt;Жайворонок рогатий&lt;/li&gt;&lt;li&gt;Сова плямиста&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;ЄВРОПА&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Сич хатній&lt;/li&gt;&lt;li&gt;Сова біла&lt;/li&gt;&lt;li&gt;Підкоришник короткопалий&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;ОКЕАНІЯ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Еготело австралійський&lt;/li&gt;&lt;li&gt;Какапо&lt;/li&gt;&lt;li&gt;Сова-голконіг руда&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;АЗІЯ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Bearded Reedling&lt;/li&gt;&lt;li&gt;Eurasian Eagle-Owl&lt;/li&gt;&lt;li&gt;Forest Owlet&lt;/li&gt;&lt;li&gt;Oriental Bay-Owl&lt;/li&gt;&lt;li&gt;Spoon-Billed Sandpiper&lt;/li&gt;&lt;li&gt;Sri Lanka Frogmouth&lt;/li&gt;&lt;/ul&gt;</t>
+    <t xml:space="preserve">Такі цілі рахують карти з птахами, чий дзьоб повернутий у вказаному напрямку. Птахи, чиї дзьоби спрямовані прямо вперед (або прямо догори), не враховуються для жодної з цих цілей.&lt;br&gt;Ці цілі додали, щоб у гравців був додатковий привід уважніше роздивитися ілюстрації. Хоча ми переглянули всі карти й вирішили, що визначити напрям дзьоба буде не важко, якщо у вас виникнуть із цим труднощі, можете не використовувати ці жетони цілей у грі. Ось декілька карт, для яких потрібні роз’яснення:&lt;br&gt;&lt;ul&gt;&lt;li&gt;Пісочник криводзьобий дивиться вперед, але його дзьоб вказує ліворуч.&lt;/li&gt;&lt;li&gt;На карті гагари полярної (з базової гри) і Little Grebe (з «Крил Азії») два птахи, що дивляться в обидва боки, тож вона враховується для обох цілей.&lt;/li&gt;&lt;li&gt;На карті пірникози великої (з «Крил Європи») два птахи, що дивляться в один бік; вона враховується як одна карта з птахом, що дивиться ліворуч.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Такі карти птахів не дивляться ані ліворуч, ані праворуч:&lt;br&gt;&lt;b&gt;БАЗОВА ГРА&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Сипуха&lt;/li&gt;&lt;li&gt;Сова неоарктична&lt;/li&gt;&lt;li&gt;Сич американський&lt;/li&gt;&lt;li&gt;Кондор каліфорнійський&lt;/li&gt;&lt;li&gt;Сплюшка північна&lt;/li&gt;&lt;li&gt;Пугач віргінський&lt;/li&gt;&lt;li&gt;Жайворонок рогатий&lt;/li&gt;&lt;li&gt;Сова плямиста&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;ЄВРОПА&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Сич хатній&lt;/li&gt;&lt;li&gt;Сова біла&lt;/li&gt;&lt;li&gt;Підкоришник короткопалий&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;ОКЕАНІЯ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Еготело австралійський&lt;/li&gt;&lt;li&gt;Какапо&lt;/li&gt;&lt;li&gt;Сова-голконіг руда&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;АЗІЯ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Bearded Reedling&lt;/li&gt;&lt;li&gt;Eurasian Eagle-Owl&lt;/li&gt;&lt;li&gt;Forest Owlet&lt;/li&gt;&lt;li&gt;Oriental Bay-Owl&lt;/li&gt;&lt;li&gt;Spoon-Billed Sandpiper&lt;/li&gt;&lt;li&gt;Sri Lanka Frogmouth&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Beak Pointing Right</t>
@@ -6457,12 +6457,12 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C380" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A380" activeCellId="0" sqref="A380"/>
-      <selection pane="bottomRight" activeCell="E414" activeCellId="0" sqref="E414"/>
+      <selection pane="bottomRight" activeCell="B407" activeCellId="1" sqref="F33 B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15646,7 +15646,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="1" sqref="F33 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16575,12 +16575,12 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17418,7 +17418,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="F33 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17507,7 +17507,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="F33 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/i18n/uk.xlsx
+++ b/i18n/uk.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Goals!$A:$F</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parameters!$A$1:$B$2</definedName>
-    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$G$357</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$H$357</definedName>
     <definedName name="ExternalData_2" localSheetId="1">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1541">
   <si>
     <t>id</t>
   </si>
@@ -5775,6 +5775,9 @@
   <si>
     <t>подивіться [card] з колоди. Якщо розмах крил на ній менше 40 см, підкладіть її під цього птаха і запасіть 1 [rodent] із загального запасу на птаху. Інакше скиньте карту.</t>
   </si>
+  <si>
+    <t>Flavor text</t>
+  </si>
 </sst>
 </file>
 
@@ -5783,7 +5786,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5910,6 +5913,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5931,7 +5940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -5971,11 +5980,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -6057,15 +6072,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K447" totalsRowShown="0">
-  <autoFilter ref="A1:K447"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:L447" totalsRowShown="0">
+  <autoFilter ref="A1:L447"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
     <tableColumn id="3" name="Scientific name"/>
     <tableColumn id="4" name="Expansion"/>
     <tableColumn id="5" name="Common name"/>
     <tableColumn id="6" name="Power text"/>
+    <tableColumn id="12" name="Flavor text" dataDxfId="0"/>
     <tableColumn id="7" name="Note"/>
     <tableColumn id="8" name="Anatomist"/>
     <tableColumn id="9" name="Cartographer"/>
@@ -6214,13 +6230,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K447"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A380" sqref="A380"/>
-      <selection pane="bottomRight" activeCell="F292" sqref="F292"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6230,11 +6246,12 @@
     <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="116.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6253,23 +6270,26 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="27" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -6288,10 +6308,11 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="G2" s="4"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -6310,10 +6331,11 @@
       <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -6328,10 +6350,11 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="G4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -6346,10 +6369,11 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="G5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -6364,10 +6388,11 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="G6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -6382,10 +6407,11 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -6400,10 +6426,11 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="G8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -6418,10 +6445,11 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -6436,10 +6464,11 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="4"/>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -6454,10 +6483,11 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="4"/>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -6472,10 +6502,11 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="G12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -6490,10 +6521,11 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="G13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -6508,10 +6540,11 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="G14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -6526,10 +6559,11 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="G15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -6544,10 +6578,11 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="4"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -6562,10 +6597,11 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="4"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -6584,16 +6620,17 @@
       <c r="F18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="4"/>
+      <c r="I18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -6608,10 +6645,11 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="4"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -6626,10 +6664,11 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="G20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -6644,10 +6683,11 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="G21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -6662,10 +6702,11 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="4"/>
       <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -6680,10 +6721,11 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="G23" s="4"/>
       <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -6698,10 +6740,11 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="4"/>
       <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -6716,10 +6759,11 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="4"/>
       <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -6734,10 +6778,11 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="4"/>
       <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -6752,10 +6797,11 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="4"/>
       <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -6770,10 +6816,11 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="4"/>
       <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -6792,16 +6839,17 @@
       <c r="F29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="4"/>
+      <c r="I29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="1" t="s">
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -6816,10 +6864,11 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -6834,10 +6883,11 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="5"/>
+      <c r="G31" s="4"/>
       <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -6852,10 +6902,11 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="H32" s="5"/>
+      <c r="G32" s="4"/>
       <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -6874,17 +6925,18 @@
       <c r="F33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="1" t="s">
+      <c r="J33" s="5"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -6899,10 +6951,11 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="G34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -6917,10 +6970,11 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="G35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -6935,10 +6989,11 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="G36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -6953,10 +7008,11 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="H37" s="5"/>
+      <c r="G37" s="4"/>
       <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -6975,13 +7031,14 @@
       <c r="F38" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -6996,10 +7053,11 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="G39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -7018,16 +7076,17 @@
       <c r="F40" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="5"/>
+      <c r="K40" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -7046,16 +7105,17 @@
       <c r="F41" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="G41" s="4"/>
+      <c r="I41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="1" t="s">
+      <c r="J41" s="5"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -7070,10 +7130,11 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="4"/>
       <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -7088,10 +7149,11 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="H43" s="5"/>
+      <c r="G43" s="4"/>
       <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -7106,10 +7168,11 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="G44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -7124,10 +7187,11 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="G45" s="5"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -7146,16 +7210,17 @@
       <c r="F46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="G46" s="4"/>
+      <c r="I46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="1" t="s">
+      <c r="J46" s="5"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -7172,10 +7237,11 @@
         <v>127</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="H47" s="5"/>
+      <c r="G47" s="4"/>
       <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -7194,13 +7260,14 @@
       <c r="F48" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="4"/>
+      <c r="H48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="I48" s="5"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -7215,10 +7282,11 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="H49" s="5"/>
+      <c r="G49" s="4"/>
       <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -7233,10 +7301,11 @@
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="H50" s="5"/>
+      <c r="G50" s="4"/>
       <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -7251,10 +7320,11 @@
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="G51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -7269,10 +7339,11 @@
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="H52" s="5"/>
+      <c r="G52" s="4"/>
       <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -7287,10 +7358,11 @@
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="H53" s="5"/>
+      <c r="G53" s="4"/>
       <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -7305,10 +7377,11 @@
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="G54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -7327,13 +7400,14 @@
       <c r="F55" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="4"/>
+      <c r="H55" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -7348,10 +7422,11 @@
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="H56" s="5"/>
+      <c r="G56" s="4"/>
       <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -7366,10 +7441,11 @@
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="G57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -7384,10 +7460,11 @@
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="G58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -7402,10 +7479,11 @@
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="G59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -7420,10 +7498,11 @@
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="G60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -7438,10 +7517,11 @@
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="G61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -7456,10 +7536,11 @@
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="G62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -7474,10 +7555,11 @@
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="G63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -7496,14 +7578,15 @@
       <c r="F64" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H64" s="5"/>
+      <c r="G64" s="4"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="1" t="s">
+      <c r="J64" s="5"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -7518,10 +7601,11 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="G65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -7536,10 +7620,11 @@
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="H66" s="5"/>
+      <c r="G66" s="4"/>
       <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -7554,10 +7639,11 @@
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="H67" s="5"/>
+      <c r="G67" s="4"/>
       <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -7572,10 +7658,11 @@
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="H68" s="5"/>
+      <c r="G68" s="4"/>
       <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -7594,16 +7681,17 @@
       <c r="F69" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="4"/>
+      <c r="H69" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="5"/>
+      <c r="J69" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -7622,10 +7710,11 @@
       <c r="F70" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="G70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -7640,10 +7729,11 @@
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="G71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -7658,10 +7748,11 @@
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="G72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -7676,10 +7767,11 @@
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="G73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -7694,10 +7786,11 @@
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="G74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -7712,10 +7805,11 @@
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="H75" s="5"/>
+      <c r="G75" s="4"/>
       <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -7734,17 +7828,18 @@
       <c r="F76" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="4"/>
+      <c r="H76" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="1" t="s">
+      <c r="J76" s="5"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -7763,17 +7858,18 @@
       <c r="F77" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="4"/>
+      <c r="H77" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="1" t="s">
+      <c r="J77" s="5"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -7792,13 +7888,14 @@
       <c r="F78" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="4"/>
+      <c r="H78" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -7817,13 +7914,14 @@
       <c r="F79" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="4"/>
+      <c r="H79" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -7842,16 +7940,17 @@
       <c r="F80" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="4"/>
+      <c r="H80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="4" t="s">
+      <c r="J80" s="5"/>
+      <c r="K80" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -7870,13 +7969,14 @@
       <c r="F81" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="4"/>
+      <c r="H81" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -7895,13 +7995,14 @@
       <c r="F82" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="4"/>
+      <c r="H82" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -7916,10 +8017,11 @@
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="H83" s="5"/>
+      <c r="G83" s="4"/>
       <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -7938,13 +8040,14 @@
       <c r="F84" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="4"/>
+      <c r="H84" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -7963,13 +8066,14 @@
       <c r="F85" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="4"/>
+      <c r="H85" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -7984,10 +8088,11 @@
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="H86" s="5"/>
+      <c r="G86" s="4"/>
       <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -8002,10 +8107,11 @@
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="H87" s="5"/>
+      <c r="G87" s="4"/>
       <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -8024,13 +8130,14 @@
       <c r="F88" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="4"/>
+      <c r="H88" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -8045,10 +8152,11 @@
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="H89" s="5"/>
+      <c r="G89" s="4"/>
       <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -8067,10 +8175,11 @@
       <c r="F90" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H90" s="5"/>
+      <c r="G90" s="4"/>
       <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -8085,10 +8194,11 @@
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="H91" s="5"/>
+      <c r="G91" s="4"/>
       <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -8107,10 +8217,11 @@
       <c r="F92" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H92" s="5"/>
+      <c r="G92" s="4"/>
       <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -8129,18 +8240,19 @@
       <c r="F93" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="G93" s="4"/>
+      <c r="I93" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I93" s="5"/>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="5"/>
+      <c r="K93" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -8155,10 +8267,11 @@
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="G94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -8173,10 +8286,11 @@
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="G95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -8195,16 +8309,17 @@
       <c r="F96" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="6"/>
+      <c r="H96" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H96" s="5"/>
-      <c r="I96" s="4" t="s">
+      <c r="I96" s="5"/>
+      <c r="J96" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J96" s="4"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -8219,10 +8334,11 @@
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="H97" s="5"/>
+      <c r="G97" s="4"/>
       <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -8237,10 +8353,11 @@
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="G98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -8255,10 +8372,11 @@
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="H99" s="5"/>
+      <c r="G99" s="4"/>
       <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -8273,10 +8391,11 @@
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="H100" s="5"/>
+      <c r="G100" s="4"/>
       <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -8295,10 +8414,11 @@
       <c r="F101" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="H101" s="5"/>
+      <c r="G101" s="4"/>
       <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -8313,10 +8433,11 @@
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="G102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -8335,16 +8456,17 @@
       <c r="F103" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="4"/>
+      <c r="H103" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="4" t="s">
+      <c r="J103" s="5"/>
+      <c r="K103" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -8359,10 +8481,11 @@
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="4"/>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="G104" s="4"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -8377,10 +8500,11 @@
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="H105" s="5"/>
+      <c r="G105" s="4"/>
       <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -8395,10 +8519,11 @@
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="H106" s="5"/>
+      <c r="G106" s="4"/>
       <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -8417,10 +8542,11 @@
       <c r="F107" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="H107" s="5"/>
+      <c r="G107" s="4"/>
       <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -8439,13 +8565,14 @@
       <c r="F108" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H108" s="5"/>
+      <c r="G108" s="4"/>
       <c r="I108" s="5"/>
-      <c r="J108" s="4" t="s">
+      <c r="J108" s="5"/>
+      <c r="K108" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -8464,13 +8591,14 @@
       <c r="F109" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="6"/>
+      <c r="H109" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H109" s="5"/>
       <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -8489,17 +8617,18 @@
       <c r="F110" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="4"/>
+      <c r="H110" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H110" s="5"/>
       <c r="I110" s="5"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="1" t="s">
+      <c r="J110" s="5"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -8518,13 +8647,14 @@
       <c r="F111" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="4"/>
+      <c r="H111" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H111" s="5"/>
       <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -8543,13 +8673,14 @@
       <c r="F112" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="4"/>
+      <c r="H112" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H112" s="5"/>
       <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -8568,13 +8699,14 @@
       <c r="F113" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="4"/>
+      <c r="H113" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H113" s="5"/>
       <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -8593,13 +8725,14 @@
       <c r="F114" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="6"/>
+      <c r="H114" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H114" s="5"/>
       <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -8618,13 +8751,14 @@
       <c r="F115" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="4"/>
+      <c r="H115" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H115" s="5"/>
       <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -8643,13 +8777,14 @@
       <c r="F116" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="4"/>
+      <c r="H116" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H116" s="5"/>
       <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -8668,13 +8803,14 @@
       <c r="F117" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="6"/>
+      <c r="H117" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H117" s="5"/>
       <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -8693,13 +8829,14 @@
       <c r="F118" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="4"/>
+      <c r="H118" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H118" s="5"/>
       <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -8718,10 +8855,11 @@
       <c r="F119" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H119" s="5"/>
+      <c r="G119" s="4"/>
       <c r="I119" s="5"/>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -8740,13 +8878,14 @@
       <c r="F120" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="4"/>
+      <c r="H120" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H120" s="5"/>
       <c r="I120" s="5"/>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -8765,13 +8904,14 @@
       <c r="F121" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="4"/>
+      <c r="H121" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H121" s="5"/>
       <c r="I121" s="5"/>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -8790,17 +8930,18 @@
       <c r="F122" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="4"/>
+      <c r="H122" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H122" s="5"/>
       <c r="I122" s="5"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="1" t="s">
+      <c r="J122" s="5"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:12">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -8819,13 +8960,14 @@
       <c r="F123" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="6"/>
+      <c r="H123" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H123" s="5"/>
       <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -8840,10 +8982,11 @@
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="H124" s="5"/>
+      <c r="G124" s="4"/>
       <c r="I124" s="5"/>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -8858,10 +9001,11 @@
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="H125" s="5"/>
+      <c r="G125" s="4"/>
       <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -8876,10 +9020,11 @@
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="G126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -8894,10 +9039,11 @@
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="H127" s="5"/>
+      <c r="G127" s="4"/>
       <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -8916,19 +9062,20 @@
       <c r="F128" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="4"/>
+      <c r="H128" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="I128" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I128" s="5"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="1" t="s">
+      <c r="J128" s="5"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -8943,10 +9090,11 @@
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="H129" s="5"/>
+      <c r="G129" s="4"/>
       <c r="I129" s="5"/>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -8961,10 +9109,11 @@
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="H130" s="5"/>
+      <c r="G130" s="4"/>
       <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -8979,10 +9128,11 @@
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="H131" s="5"/>
+      <c r="G131" s="4"/>
       <c r="I131" s="5"/>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -8997,10 +9147,11 @@
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="H132" s="5"/>
+      <c r="G132" s="4"/>
       <c r="I132" s="5"/>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -9015,10 +9166,11 @@
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="5"/>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="G133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -9037,13 +9189,14 @@
       <c r="F134" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="4"/>
+      <c r="H134" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H134" s="4"/>
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="I134" s="4"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -9058,10 +9211,11 @@
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="H135" s="5"/>
+      <c r="G135" s="4"/>
       <c r="I135" s="5"/>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -9076,10 +9230,11 @@
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="4"/>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="G136" s="4"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -9098,10 +9253,11 @@
       <c r="F137" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="H137" s="5"/>
+      <c r="G137" s="4"/>
       <c r="I137" s="5"/>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -9120,13 +9276,14 @@
       <c r="F138" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G138" s="4"/>
+      <c r="H138" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -9141,10 +9298,11 @@
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="5"/>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="G139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -9159,10 +9317,11 @@
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="4"/>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="G140" s="4"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -9177,10 +9336,11 @@
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="H141" s="5"/>
+      <c r="G141" s="4"/>
       <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -9199,17 +9359,18 @@
       <c r="F142" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" s="4"/>
+      <c r="H142" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H142" s="5"/>
       <c r="I142" s="5"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="1" t="s">
+      <c r="J142" s="5"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -9228,17 +9389,18 @@
       <c r="F143" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" s="4"/>
+      <c r="H143" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="1" t="s">
+      <c r="J143" s="5"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -9257,16 +9419,17 @@
       <c r="F144" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="G144" s="4"/>
+      <c r="I144" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I144" s="5"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="1" t="s">
+      <c r="J144" s="5"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:12">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -9285,13 +9448,14 @@
       <c r="F145" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" s="4"/>
+      <c r="H145" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H145" s="4"/>
-      <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="I145" s="4"/>
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -9306,10 +9470,11 @@
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="H146" s="5"/>
+      <c r="G146" s="4"/>
       <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -9328,17 +9493,18 @@
       <c r="F147" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" s="4"/>
+      <c r="H147" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H147" s="5"/>
       <c r="I147" s="5"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="1" t="s">
+      <c r="J147" s="5"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:12">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -9353,10 +9519,11 @@
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="H148" s="5"/>
+      <c r="G148" s="4"/>
       <c r="I148" s="5"/>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -9371,10 +9538,11 @@
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="5"/>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="G149" s="5"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -9389,10 +9557,11 @@
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="H150" s="5"/>
+      <c r="G150" s="4"/>
       <c r="I150" s="5"/>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -9407,10 +9576,11 @@
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="H151" s="5"/>
+      <c r="G151" s="4"/>
       <c r="I151" s="5"/>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -9429,13 +9599,14 @@
       <c r="F152" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="H152" s="5"/>
+      <c r="G152" s="4"/>
       <c r="I152" s="5"/>
-      <c r="J152" s="4" t="s">
+      <c r="J152" s="5"/>
+      <c r="K152" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -9450,10 +9621,11 @@
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="H153" s="5"/>
+      <c r="G153" s="4"/>
       <c r="I153" s="5"/>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -9468,10 +9640,11 @@
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="4"/>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="G154" s="4"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="4"/>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -9486,10 +9659,11 @@
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="H155" s="5"/>
+      <c r="G155" s="4"/>
       <c r="I155" s="5"/>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -9504,10 +9678,11 @@
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="H156" s="5"/>
+      <c r="G156" s="4"/>
       <c r="I156" s="5"/>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -9522,10 +9697,11 @@
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="H157" s="5"/>
+      <c r="G157" s="4"/>
       <c r="I157" s="5"/>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -9540,10 +9716,11 @@
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="H158" s="5"/>
+      <c r="G158" s="4"/>
       <c r="I158" s="5"/>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -9558,10 +9735,11 @@
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="H159" s="5"/>
+      <c r="G159" s="4"/>
       <c r="I159" s="5"/>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -9580,10 +9758,11 @@
       <c r="F160" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H160" s="5"/>
+      <c r="G160" s="4"/>
       <c r="I160" s="5"/>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="J160" s="5"/>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -9598,10 +9777,11 @@
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="H161" s="5"/>
+      <c r="G161" s="4"/>
       <c r="I161" s="5"/>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -9620,13 +9800,14 @@
       <c r="F162" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" s="4"/>
+      <c r="H162" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H162" s="5"/>
       <c r="I162" s="5"/>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="J162" s="5"/>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -9645,16 +9826,17 @@
       <c r="F163" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" s="4"/>
+      <c r="H163" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H163" s="5"/>
       <c r="I163" s="5"/>
-      <c r="J163" s="4" t="s">
+      <c r="J163" s="5"/>
+      <c r="K163" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:11">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -9669,10 +9851,11 @@
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="H164" s="5"/>
+      <c r="G164" s="4"/>
       <c r="I164" s="5"/>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -9691,16 +9874,17 @@
       <c r="F165" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" s="4"/>
+      <c r="H165" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H165" s="5" t="s">
+      <c r="I165" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I165" s="5"/>
-      <c r="J165" s="4"/>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="J165" s="5"/>
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -9715,10 +9899,11 @@
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
-      <c r="H166" s="5"/>
+      <c r="G166" s="4"/>
       <c r="I166" s="5"/>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -9733,10 +9918,11 @@
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="5"/>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="G167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -9755,13 +9941,14 @@
       <c r="F168" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" s="4"/>
+      <c r="H168" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H168" s="5"/>
       <c r="I168" s="5"/>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -9780,13 +9967,14 @@
       <c r="F169" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="4"/>
+      <c r="H169" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H169" s="5"/>
       <c r="I169" s="5"/>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -9801,10 +9989,11 @@
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
-      <c r="H170" s="5"/>
+      <c r="G170" s="4"/>
       <c r="I170" s="5"/>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -9819,10 +10008,11 @@
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
-      <c r="H171" s="5"/>
+      <c r="G171" s="4"/>
       <c r="I171" s="5"/>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -9837,10 +10027,11 @@
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="5"/>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="G172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="5"/>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -9859,13 +10050,14 @@
       <c r="F173" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G173" s="6"/>
+      <c r="H173" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="H173" s="5"/>
       <c r="I173" s="5"/>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -9880,10 +10072,11 @@
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="4"/>
-    </row>
-    <row r="175" spans="1:10" ht="16.5">
+      <c r="G174" s="4"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="1:11" ht="16.5">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -9902,10 +10095,11 @@
       <c r="F175" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="H175" s="5"/>
+      <c r="G175" s="7"/>
       <c r="I175" s="5"/>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -9920,10 +10114,11 @@
       </c>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="5"/>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="G176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -9942,13 +10137,14 @@
       <c r="F177" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5" t="s">
+      <c r="G177" s="6"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J177" s="4"/>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177" s="4"/>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -9967,13 +10163,14 @@
       <c r="F178" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G178" s="4"/>
+      <c r="H178" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H178" s="5"/>
       <c r="I178" s="5"/>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -9988,10 +10185,11 @@
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
-      <c r="H179" s="5"/>
+      <c r="G179" s="4"/>
       <c r="I179" s="5"/>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -10006,10 +10204,11 @@
       </c>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="4"/>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="G180" s="4"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -10024,10 +10223,11 @@
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="5"/>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="G181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -10042,10 +10242,11 @@
       </c>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
-      <c r="H182" s="5"/>
+      <c r="G182" s="4"/>
       <c r="I182" s="5"/>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -10060,10 +10261,11 @@
       </c>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
-      <c r="H183" s="5"/>
+      <c r="G183" s="4"/>
       <c r="I183" s="5"/>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -10078,10 +10280,11 @@
       </c>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
-      <c r="H184" s="4"/>
-      <c r="I184" s="5"/>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="G184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="5"/>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -10100,13 +10303,14 @@
       <c r="F185" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" s="4"/>
+      <c r="H185" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H185" s="4"/>
-      <c r="I185" s="5"/>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="I185" s="4"/>
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -10121,10 +10325,11 @@
       </c>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
-      <c r="H186" s="5"/>
+      <c r="G186" s="4"/>
       <c r="I186" s="5"/>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -10139,10 +10344,11 @@
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="5"/>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="G187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -10157,10 +10363,11 @@
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="5"/>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="G188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -10175,10 +10382,11 @@
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
-      <c r="H189" s="5"/>
+      <c r="G189" s="4"/>
       <c r="I189" s="5"/>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -10193,10 +10401,11 @@
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="5"/>
-      <c r="H190" s="5"/>
+      <c r="G190" s="5"/>
       <c r="I190" s="5"/>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -10211,10 +10420,11 @@
       </c>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="4"/>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="G191" s="4"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="4"/>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -10229,10 +10439,11 @@
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
-      <c r="H192" s="5"/>
+      <c r="G192" s="4"/>
       <c r="I192" s="5"/>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="J192" s="5"/>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -10247,10 +10458,11 @@
       </c>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
-      <c r="H193" s="5"/>
+      <c r="G193" s="4"/>
       <c r="I193" s="5"/>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="J193" s="5"/>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -10265,10 +10477,11 @@
       </c>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
-      <c r="H194" s="4"/>
-      <c r="I194" s="5"/>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="G194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -10287,13 +10500,14 @@
       <c r="F195" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G195" s="4"/>
+      <c r="H195" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H195" s="5"/>
       <c r="I195" s="5"/>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -10312,18 +10526,19 @@
       <c r="F196" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G196" s="4"/>
+      <c r="H196" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5" t="s">
+      <c r="I196" s="5"/>
+      <c r="J196" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J196" s="4" t="s">
+      <c r="K196" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:12">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -10342,13 +10557,14 @@
       <c r="F197" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" s="4"/>
+      <c r="H197" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H197" s="5"/>
       <c r="I197" s="5"/>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="J197" s="5"/>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -10363,10 +10579,11 @@
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
-      <c r="H198" s="4"/>
-      <c r="I198" s="5"/>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="G198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="5"/>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -10381,10 +10598,11 @@
       </c>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
-      <c r="H199" s="5"/>
+      <c r="G199" s="4"/>
       <c r="I199" s="5"/>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="J199" s="5"/>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -10399,10 +10617,11 @@
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
-      <c r="H200" s="4"/>
-      <c r="I200" s="5"/>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="G200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="5"/>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -10417,10 +10636,11 @@
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
-      <c r="H201" s="5"/>
+      <c r="G201" s="4"/>
       <c r="I201" s="5"/>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -10435,10 +10655,11 @@
       </c>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
-      <c r="H202" s="4"/>
-      <c r="I202" s="5"/>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="G202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="5"/>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -10453,10 +10674,11 @@
       </c>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
-      <c r="H203" s="4"/>
-      <c r="I203" s="5"/>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="G203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="5"/>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -10475,16 +10697,17 @@
       <c r="F204" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="H204" s="5" t="s">
+      <c r="G204" s="4"/>
+      <c r="I204" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I204" s="5"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="1" t="s">
+      <c r="J204" s="5"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:12">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -10499,10 +10722,11 @@
       </c>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
-      <c r="H205" s="4"/>
-      <c r="I205" s="5"/>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="G205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -10517,10 +10741,11 @@
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="5"/>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="G206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -10537,10 +10762,11 @@
         <v>574</v>
       </c>
       <c r="F207" s="4"/>
-      <c r="H207" s="4"/>
-      <c r="I207" s="5"/>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="G207" s="4"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -10555,10 +10781,11 @@
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="4"/>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="G208" s="4"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="4"/>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -10573,10 +10800,11 @@
       </c>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
-      <c r="H209" s="5"/>
+      <c r="G209" s="4"/>
       <c r="I209" s="5"/>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -10591,10 +10819,11 @@
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
-      <c r="H210" s="5"/>
+      <c r="G210" s="4"/>
       <c r="I210" s="5"/>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -10609,10 +10838,11 @@
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
-      <c r="H211" s="5"/>
+      <c r="G211" s="4"/>
       <c r="I211" s="5"/>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="J211" s="5"/>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -10627,10 +10857,11 @@
       </c>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
-      <c r="H212" s="4"/>
-      <c r="I212" s="5"/>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="G212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -10645,10 +10876,11 @@
       </c>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="4"/>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="G213" s="4"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="4"/>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -10667,10 +10899,11 @@
       <c r="F214" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="H214" s="5"/>
+      <c r="G214" s="4"/>
       <c r="I214" s="5"/>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="J214" s="5"/>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -10685,10 +10918,11 @@
       </c>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="4"/>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="G215" s="4"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="4"/>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -10703,10 +10937,11 @@
       </c>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="5"/>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="G216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="5"/>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -10725,13 +10960,14 @@
       <c r="F217" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G217" s="4"/>
+      <c r="H217" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H217" s="5"/>
       <c r="I217" s="5"/>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="J217" s="5"/>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -10746,10 +10982,11 @@
       </c>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
-      <c r="H218" s="5"/>
+      <c r="G218" s="4"/>
       <c r="I218" s="5"/>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="J218" s="5"/>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -10764,10 +11001,11 @@
       </c>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
-      <c r="H219" s="5"/>
+      <c r="G219" s="4"/>
       <c r="I219" s="5"/>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -10782,10 +11020,11 @@
       </c>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
-      <c r="H220" s="5"/>
+      <c r="G220" s="4"/>
       <c r="I220" s="5"/>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="J220" s="5"/>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -10804,16 +11043,17 @@
       <c r="F221" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G221" s="4"/>
+      <c r="H221" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H221" s="5" t="s">
+      <c r="I221" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I221" s="5"/>
-      <c r="J221" s="4"/>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="J221" s="5"/>
+      <c r="K221" s="4"/>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -10832,10 +11072,11 @@
       <c r="F222" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="H222" s="5"/>
+      <c r="G222" s="6"/>
       <c r="I222" s="5"/>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -10852,10 +11093,11 @@
         <v>616</v>
       </c>
       <c r="F223" s="4"/>
-      <c r="H223" s="5"/>
+      <c r="G223" s="4"/>
       <c r="I223" s="5"/>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="J223" s="5"/>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -10874,17 +11116,18 @@
       <c r="F224" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G224" s="4"/>
+      <c r="H224" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H224" s="5"/>
       <c r="I224" s="5"/>
-      <c r="J224" s="4"/>
-      <c r="K224" s="1" t="s">
+      <c r="J224" s="5"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:12">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -10899,10 +11142,11 @@
       </c>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
-      <c r="H225" s="4"/>
-      <c r="I225" s="5"/>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="G225" s="4"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="5"/>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -10917,10 +11161,11 @@
       </c>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
-      <c r="H226" s="5"/>
+      <c r="G226" s="4"/>
       <c r="I226" s="5"/>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="J226" s="5"/>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -10935,10 +11180,11 @@
       </c>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
-      <c r="H227" s="5"/>
+      <c r="G227" s="4"/>
       <c r="I227" s="5"/>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="J227" s="5"/>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" s="1">
         <v>228</v>
       </c>
@@ -10953,10 +11199,11 @@
       </c>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
-      <c r="H228" s="4"/>
-      <c r="I228" s="5"/>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="G228" s="4"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="5"/>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -10971,10 +11218,11 @@
       </c>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
-      <c r="H229" s="5"/>
+      <c r="G229" s="4"/>
       <c r="I229" s="5"/>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="J229" s="5"/>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -10993,17 +11241,18 @@
       <c r="F230" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G230" s="4"/>
+      <c r="H230" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H230" s="4"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="4"/>
-      <c r="K230" s="1" t="s">
+      <c r="I230" s="4"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:12">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -11018,10 +11267,11 @@
       </c>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
-      <c r="H231" s="4"/>
-      <c r="I231" s="5"/>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="G231" s="4"/>
+      <c r="I231" s="4"/>
+      <c r="J231" s="5"/>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -11036,10 +11286,11 @@
       </c>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
-      <c r="H232" s="5"/>
+      <c r="G232" s="4"/>
       <c r="I232" s="5"/>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="J232" s="5"/>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" s="1">
         <v>233</v>
       </c>
@@ -11058,15 +11309,16 @@
       <c r="F233" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="H233" s="5" t="s">
+      <c r="G233" s="4"/>
+      <c r="I233" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I233" s="4"/>
-      <c r="J233" s="4" t="s">
+      <c r="J233" s="4"/>
+      <c r="K233" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:12">
       <c r="A234" s="1">
         <v>234</v>
       </c>
@@ -11081,10 +11333,11 @@
       </c>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
-      <c r="H234" s="5"/>
+      <c r="G234" s="4"/>
       <c r="I234" s="5"/>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="J234" s="5"/>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" s="1">
         <v>235</v>
       </c>
@@ -11099,10 +11352,11 @@
       </c>
       <c r="E235" s="4"/>
       <c r="F235" s="5"/>
-      <c r="H235" s="5"/>
+      <c r="G235" s="5"/>
       <c r="I235" s="5"/>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="J235" s="5"/>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" s="1">
         <v>236</v>
       </c>
@@ -11117,10 +11371,11 @@
       </c>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
-      <c r="H236" s="5"/>
+      <c r="G236" s="4"/>
       <c r="I236" s="5"/>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="J236" s="5"/>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" s="1">
         <v>237</v>
       </c>
@@ -11135,10 +11390,11 @@
       </c>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
-      <c r="H237" s="4"/>
-      <c r="I237" s="5"/>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="G237" s="4"/>
+      <c r="I237" s="4"/>
+      <c r="J237" s="5"/>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" s="1">
         <v>238</v>
       </c>
@@ -11153,10 +11409,11 @@
       </c>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
-      <c r="H238" s="4"/>
-      <c r="I238" s="5"/>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="G238" s="4"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="5"/>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" s="1">
         <v>239</v>
       </c>
@@ -11171,10 +11428,11 @@
       </c>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
-      <c r="H239" s="4"/>
-      <c r="I239" s="5"/>
-    </row>
-    <row r="240" spans="1:11">
+      <c r="G239" s="4"/>
+      <c r="I239" s="4"/>
+      <c r="J239" s="5"/>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" s="1">
         <v>240</v>
       </c>
@@ -11189,10 +11447,11 @@
       </c>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
-      <c r="H240" s="4"/>
-      <c r="I240" s="5"/>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="G240" s="4"/>
+      <c r="I240" s="4"/>
+      <c r="J240" s="5"/>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" s="1">
         <v>241</v>
       </c>
@@ -11207,10 +11466,11 @@
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
-      <c r="H241" s="4"/>
-      <c r="I241" s="5"/>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="G241" s="4"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="5"/>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" s="1">
         <v>242</v>
       </c>
@@ -11229,14 +11489,15 @@
       <c r="F242" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H242" s="5"/>
+      <c r="G242" s="4"/>
       <c r="I242" s="5"/>
-      <c r="J242" s="4"/>
-      <c r="K242" s="1" t="s">
+      <c r="J242" s="5"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:12">
       <c r="A243" s="1">
         <v>243</v>
       </c>
@@ -11255,17 +11516,18 @@
       <c r="F243" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="G243" s="4"/>
+      <c r="H243" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H243" s="5"/>
       <c r="I243" s="5"/>
-      <c r="J243" s="4"/>
-      <c r="K243" s="1" t="s">
+      <c r="J243" s="5"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:12">
       <c r="A244" s="1">
         <v>244</v>
       </c>
@@ -11284,19 +11546,20 @@
       <c r="F244" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="G244" s="4"/>
+      <c r="H244" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="H244" s="4" t="s">
+      <c r="I244" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I244" s="5"/>
-      <c r="J244" s="4"/>
-      <c r="K244" s="1" t="s">
+      <c r="J244" s="5"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:12">
       <c r="A245" s="1">
         <v>245</v>
       </c>
@@ -11311,10 +11574,11 @@
       </c>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="4"/>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="G245" s="4"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="4"/>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" s="1">
         <v>246</v>
       </c>
@@ -11329,10 +11593,11 @@
       </c>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
-      <c r="H246" s="4"/>
-      <c r="I246" s="5"/>
-    </row>
-    <row r="247" spans="1:11">
+      <c r="G246" s="4"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="5"/>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" s="1">
         <v>247</v>
       </c>
@@ -11347,10 +11612,11 @@
       </c>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
-      <c r="H247" s="5"/>
-      <c r="I247" s="4"/>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="G247" s="4"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="4"/>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" s="1">
         <v>248</v>
       </c>
@@ -11369,10 +11635,11 @@
       <c r="F248" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H248" s="5"/>
+      <c r="G248" s="4"/>
       <c r="I248" s="5"/>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="J248" s="5"/>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" s="1">
         <v>249</v>
       </c>
@@ -11387,10 +11654,11 @@
       </c>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
-      <c r="H249" s="4"/>
-      <c r="I249" s="5"/>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="G249" s="4"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="5"/>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" s="1">
         <v>250</v>
       </c>
@@ -11405,10 +11673,11 @@
       </c>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
-      <c r="H250" s="5"/>
+      <c r="G250" s="4"/>
       <c r="I250" s="5"/>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="J250" s="5"/>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" s="1">
         <v>251</v>
       </c>
@@ -11423,10 +11692,11 @@
       </c>
       <c r="E251" s="4"/>
       <c r="F251" s="5"/>
-      <c r="H251" s="5"/>
+      <c r="G251" s="5"/>
       <c r="I251" s="5"/>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="J251" s="5"/>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" s="1">
         <v>252</v>
       </c>
@@ -11441,10 +11711,11 @@
       </c>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
-      <c r="H252" s="5"/>
+      <c r="G252" s="4"/>
       <c r="I252" s="5"/>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="J252" s="5"/>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" s="1">
         <v>253</v>
       </c>
@@ -11459,10 +11730,11 @@
       </c>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
-      <c r="H253" s="5"/>
-      <c r="I253" s="4"/>
-    </row>
-    <row r="254" spans="1:11">
+      <c r="G253" s="4"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="4"/>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" s="1">
         <v>254</v>
       </c>
@@ -11481,16 +11753,17 @@
       <c r="F254" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="G254" s="4"/>
+      <c r="H254" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H254" s="4"/>
-      <c r="I254" s="5" t="s">
+      <c r="I254" s="4"/>
+      <c r="J254" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J254" s="4"/>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="K254" s="4"/>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" s="1">
         <v>255</v>
       </c>
@@ -11505,10 +11778,11 @@
       </c>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
-      <c r="H255" s="5"/>
-      <c r="I255" s="4"/>
-    </row>
-    <row r="256" spans="1:11">
+      <c r="G255" s="4"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="4"/>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -11523,10 +11797,11 @@
       </c>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
-      <c r="H256" s="5"/>
-      <c r="I256" s="4"/>
-    </row>
-    <row r="257" spans="1:11">
+      <c r="G256" s="4"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="4"/>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -11541,10 +11816,11 @@
       </c>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
-      <c r="H257" s="4"/>
-      <c r="I257" s="5"/>
-    </row>
-    <row r="258" spans="1:11">
+      <c r="G257" s="4"/>
+      <c r="I257" s="4"/>
+      <c r="J257" s="5"/>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" s="1">
         <v>258</v>
       </c>
@@ -11559,10 +11835,11 @@
       </c>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
-      <c r="H258" s="4"/>
-      <c r="I258" s="5"/>
-    </row>
-    <row r="259" spans="1:11">
+      <c r="G258" s="4"/>
+      <c r="I258" s="4"/>
+      <c r="J258" s="5"/>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" s="1">
         <v>259</v>
       </c>
@@ -11579,10 +11856,11 @@
         <v>701</v>
       </c>
       <c r="F259" s="4"/>
-      <c r="H259" s="5"/>
+      <c r="G259" s="4"/>
       <c r="I259" s="5"/>
-    </row>
-    <row r="260" spans="1:11">
+      <c r="J259" s="5"/>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" s="1">
         <v>260</v>
       </c>
@@ -11597,10 +11875,11 @@
       </c>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
-      <c r="H260" s="4"/>
-      <c r="I260" s="5"/>
-    </row>
-    <row r="261" spans="1:11">
+      <c r="G260" s="4"/>
+      <c r="I260" s="4"/>
+      <c r="J260" s="5"/>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" s="1">
         <v>261</v>
       </c>
@@ -11619,10 +11898,11 @@
       <c r="F261" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="H261" s="5"/>
+      <c r="G261" s="4"/>
       <c r="I261" s="5"/>
-    </row>
-    <row r="262" spans="1:11">
+      <c r="J261" s="5"/>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" s="1">
         <v>262</v>
       </c>
@@ -11641,13 +11921,14 @@
       <c r="F262" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="G262" s="4"/>
+      <c r="H262" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H262" s="5"/>
       <c r="I262" s="5"/>
-    </row>
-    <row r="263" spans="1:11" ht="16.5">
+      <c r="J262" s="5"/>
+    </row>
+    <row r="263" spans="1:12" ht="16.5">
       <c r="A263" s="1">
         <v>263</v>
       </c>
@@ -11666,18 +11947,19 @@
       <c r="F263" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="G263" s="9" t="s">
+      <c r="G263" s="9"/>
+      <c r="H263" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="H263" s="4" t="s">
+      <c r="I263" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I263" s="5"/>
-      <c r="K263" s="1" t="s">
+      <c r="J263" s="5"/>
+      <c r="L263" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="16.5">
+    <row r="264" spans="1:12" ht="16.5">
       <c r="A264" s="1">
         <v>264</v>
       </c>
@@ -11696,12 +11978,13 @@
       <c r="F264" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="H264" s="5"/>
-      <c r="I264" s="4" t="s">
+      <c r="G264" s="9"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="16.5">
+    <row r="265" spans="1:12" ht="16.5">
       <c r="A265" s="1">
         <v>265</v>
       </c>
@@ -11720,14 +12003,15 @@
       <c r="F265" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="H265" s="4" t="s">
+      <c r="G265" s="9"/>
+      <c r="I265" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I265" s="5" t="s">
+      <c r="J265" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="16.5">
+    <row r="266" spans="1:12" ht="16.5">
       <c r="A266" s="1">
         <v>266</v>
       </c>
@@ -11746,15 +12030,16 @@
       <c r="F266" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="G266" s="9" t="s">
+      <c r="G266" s="9"/>
+      <c r="H266" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="H266" s="4"/>
-      <c r="I266" s="5" t="s">
+      <c r="I266" s="4"/>
+      <c r="J266" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="16.5">
+    <row r="267" spans="1:12" ht="16.5">
       <c r="A267" s="1">
         <v>267</v>
       </c>
@@ -11773,13 +12058,14 @@
       <c r="F267" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="G267" s="9" t="s">
+      <c r="G267" s="9"/>
+      <c r="H267" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="H267" s="5"/>
       <c r="I267" s="5"/>
-    </row>
-    <row r="268" spans="1:11" ht="16.5">
+      <c r="J267" s="5"/>
+    </row>
+    <row r="268" spans="1:12" ht="16.5">
       <c r="A268" s="1">
         <v>268</v>
       </c>
@@ -11798,12 +12084,13 @@
       <c r="F268" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="H268" s="5"/>
-      <c r="I268" s="4" t="s">
+      <c r="G268" s="9"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="16.5">
+    <row r="269" spans="1:12" ht="16.5">
       <c r="A269" s="1">
         <v>269</v>
       </c>
@@ -11822,12 +12109,13 @@
       <c r="F269" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="H269" s="5"/>
-      <c r="I269" s="4" t="s">
+      <c r="G269" s="9"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="16.5">
+    <row r="270" spans="1:12" ht="16.5">
       <c r="A270" s="1">
         <v>270</v>
       </c>
@@ -11846,12 +12134,13 @@
       <c r="F270" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="H270" s="5"/>
-      <c r="I270" s="4" t="s">
+      <c r="G270" s="9"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="16.5">
+    <row r="271" spans="1:12" ht="16.5">
       <c r="A271" s="1">
         <v>271</v>
       </c>
@@ -11870,15 +12159,16 @@
       <c r="F271" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="G271" s="11" t="s">
+      <c r="G271" s="9"/>
+      <c r="H271" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="H271" s="5"/>
-      <c r="I271" s="5" t="s">
+      <c r="I271" s="5"/>
+      <c r="J271" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="16.5">
+    <row r="272" spans="1:12" ht="16.5">
       <c r="A272" s="1">
         <v>272</v>
       </c>
@@ -11897,12 +12187,13 @@
       <c r="F272" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="H272" s="5"/>
-      <c r="I272" s="4" t="s">
+      <c r="G272" s="9"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="16.5">
+    <row r="273" spans="1:12" ht="16.5">
       <c r="A273" s="1">
         <v>273</v>
       </c>
@@ -11921,13 +12212,14 @@
       <c r="F273" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="G273" s="9" t="s">
+      <c r="G273" s="9"/>
+      <c r="H273" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="H273" s="5"/>
       <c r="I273" s="5"/>
-    </row>
-    <row r="274" spans="1:11" ht="16.5">
+      <c r="J273" s="5"/>
+    </row>
+    <row r="274" spans="1:12" ht="16.5">
       <c r="A274" s="1">
         <v>274</v>
       </c>
@@ -11946,16 +12238,17 @@
       <c r="F274" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="G274" s="9" t="s">
+      <c r="G274" s="12"/>
+      <c r="H274" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="H274" s="5"/>
       <c r="I274" s="5"/>
-      <c r="K274" s="1" t="s">
+      <c r="J274" s="5"/>
+      <c r="L274" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="16.5">
+    <row r="275" spans="1:12" ht="16.5">
       <c r="A275" s="1">
         <v>275</v>
       </c>
@@ -11974,15 +12267,16 @@
       <c r="F275" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="G275" s="9" t="s">
+      <c r="G275" s="9"/>
+      <c r="H275" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="H275" s="5"/>
-      <c r="I275" s="4" t="s">
+      <c r="I275" s="5"/>
+      <c r="J275" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="16.5">
+    <row r="276" spans="1:12" ht="16.5">
       <c r="A276" s="1">
         <v>276</v>
       </c>
@@ -12001,12 +12295,13 @@
       <c r="F276" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="H276" s="4"/>
-      <c r="I276" s="5" t="s">
+      <c r="G276" s="9"/>
+      <c r="I276" s="4"/>
+      <c r="J276" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="16.5">
+    <row r="277" spans="1:12" ht="16.5">
       <c r="A277" s="1">
         <v>277</v>
       </c>
@@ -12025,15 +12320,16 @@
       <c r="F277" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="G277" s="9" t="s">
+      <c r="G277" s="9"/>
+      <c r="H277" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="H277" s="5"/>
-      <c r="I277" s="4" t="s">
+      <c r="I277" s="5"/>
+      <c r="J277" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="16.5">
+    <row r="278" spans="1:12" ht="16.5">
       <c r="A278" s="1">
         <v>278</v>
       </c>
@@ -12052,13 +12348,14 @@
       <c r="F278" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="H278" s="5"/>
+      <c r="G278" s="9"/>
       <c r="I278" s="5"/>
-      <c r="K278" s="1" t="s">
+      <c r="J278" s="5"/>
+      <c r="L278" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="16.5">
+    <row r="279" spans="1:12" ht="16.5">
       <c r="A279" s="1">
         <v>279</v>
       </c>
@@ -12077,13 +12374,14 @@
       <c r="F279" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="G279" s="9" t="s">
+      <c r="G279" s="9"/>
+      <c r="H279" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="H279" s="5"/>
       <c r="I279" s="5"/>
-    </row>
-    <row r="280" spans="1:11" ht="16.5">
+      <c r="J279" s="5"/>
+    </row>
+    <row r="280" spans="1:12" ht="16.5">
       <c r="A280" s="1">
         <v>280</v>
       </c>
@@ -12102,13 +12400,14 @@
       <c r="F280" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="G280" s="9" t="s">
+      <c r="G280" s="9"/>
+      <c r="H280" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="H280" s="5"/>
       <c r="I280" s="5"/>
-    </row>
-    <row r="281" spans="1:11" ht="16.5">
+      <c r="J280" s="5"/>
+    </row>
+    <row r="281" spans="1:12" ht="16.5">
       <c r="A281" s="1">
         <v>281</v>
       </c>
@@ -12127,15 +12426,16 @@
       <c r="F281" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="H281" s="4" t="s">
+      <c r="G281" s="9"/>
+      <c r="I281" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I281" s="5"/>
-      <c r="K281" s="1" t="s">
+      <c r="J281" s="5"/>
+      <c r="L281" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="16.5">
+    <row r="282" spans="1:12" ht="16.5">
       <c r="A282" s="1">
         <v>282</v>
       </c>
@@ -12154,15 +12454,16 @@
       <c r="F282" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="H282" s="4" t="s">
+      <c r="G282" s="9"/>
+      <c r="I282" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I282" s="5"/>
-      <c r="K282" s="1" t="s">
+      <c r="J282" s="5"/>
+      <c r="L282" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="16.5">
+    <row r="283" spans="1:12" ht="16.5">
       <c r="A283" s="1">
         <v>283</v>
       </c>
@@ -12181,10 +12482,11 @@
       <c r="F283" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="H283" s="5"/>
+      <c r="G283" s="9"/>
       <c r="I283" s="5"/>
-    </row>
-    <row r="284" spans="1:11" ht="16.5">
+      <c r="J283" s="5"/>
+    </row>
+    <row r="284" spans="1:12" ht="16.5">
       <c r="A284" s="1">
         <v>284</v>
       </c>
@@ -12203,15 +12505,16 @@
       <c r="F284" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="H284" s="4" t="s">
+      <c r="G284" s="9"/>
+      <c r="I284" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I284" s="5"/>
-      <c r="K284" s="1" t="s">
+      <c r="J284" s="5"/>
+      <c r="L284" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="16.5">
+    <row r="285" spans="1:12" ht="16.5">
       <c r="A285" s="1">
         <v>285</v>
       </c>
@@ -12230,17 +12533,18 @@
       <c r="F285" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="H285" s="4" t="s">
+      <c r="G285" s="9"/>
+      <c r="I285" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I285" s="5" t="s">
+      <c r="J285" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K285" s="1" t="s">
+      <c r="L285" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="16.5">
+    <row r="286" spans="1:12" ht="16.5">
       <c r="A286" s="1">
         <v>286</v>
       </c>
@@ -12259,13 +12563,14 @@
       <c r="F286" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="G286" s="9" t="s">
+      <c r="G286" s="9"/>
+      <c r="H286" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="H286" s="5"/>
       <c r="I286" s="5"/>
-    </row>
-    <row r="287" spans="1:11" ht="16.5">
+      <c r="J286" s="5"/>
+    </row>
+    <row r="287" spans="1:12" ht="16.5">
       <c r="A287" s="1">
         <v>287</v>
       </c>
@@ -12284,13 +12589,14 @@
       <c r="F287" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="H287" s="5"/>
+      <c r="G287" s="9"/>
       <c r="I287" s="5"/>
-      <c r="K287" s="1" t="s">
+      <c r="J287" s="5"/>
+      <c r="L287" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="16.5">
+    <row r="288" spans="1:12" ht="16.5">
       <c r="A288" s="1">
         <v>288</v>
       </c>
@@ -12309,15 +12615,16 @@
       <c r="F288" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="H288" s="4" t="s">
+      <c r="G288" s="9"/>
+      <c r="I288" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I288" s="5"/>
-      <c r="K288" s="1" t="s">
+      <c r="J288" s="5"/>
+      <c r="L288" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="16.5">
+    <row r="289" spans="1:12" ht="16.5">
       <c r="A289" s="1">
         <v>289</v>
       </c>
@@ -12336,13 +12643,14 @@
       <c r="F289" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="G289" s="9" t="s">
+      <c r="G289" s="9"/>
+      <c r="H289" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="H289" s="5"/>
       <c r="I289" s="5"/>
-    </row>
-    <row r="290" spans="1:11" ht="16.5">
+      <c r="J289" s="5"/>
+    </row>
+    <row r="290" spans="1:12" ht="16.5">
       <c r="A290" s="1">
         <v>290</v>
       </c>
@@ -12361,15 +12669,16 @@
       <c r="F290" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="H290" s="5" t="s">
+      <c r="G290" s="9"/>
+      <c r="I290" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I290" s="4"/>
-      <c r="K290" s="1" t="s">
+      <c r="J290" s="4"/>
+      <c r="L290" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="16.5">
+    <row r="291" spans="1:12" ht="16.5">
       <c r="A291" s="1">
         <v>291</v>
       </c>
@@ -12388,15 +12697,16 @@
       <c r="F291" s="13" t="s">
         <v>1539</v>
       </c>
-      <c r="H291" s="5" t="s">
+      <c r="G291" s="13"/>
+      <c r="I291" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I291" s="5"/>
-      <c r="K291" s="1" t="s">
+      <c r="J291" s="5"/>
+      <c r="L291" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="16.5">
+    <row r="292" spans="1:12" ht="16.5">
       <c r="A292" s="1">
         <v>292</v>
       </c>
@@ -12415,16 +12725,17 @@
       <c r="F292" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="G292" s="9" t="s">
+      <c r="G292" s="9"/>
+      <c r="H292" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="H292" s="5"/>
       <c r="I292" s="5"/>
-      <c r="K292" s="1" t="s">
+      <c r="J292" s="5"/>
+      <c r="L292" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="16.5">
+    <row r="293" spans="1:12" ht="16.5">
       <c r="A293" s="1">
         <v>293</v>
       </c>
@@ -12443,13 +12754,14 @@
       <c r="F293" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="H293" s="5"/>
-      <c r="I293" s="4"/>
-      <c r="K293" s="1" t="s">
+      <c r="G293" s="9"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="4"/>
+      <c r="L293" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="16.5">
+    <row r="294" spans="1:12" ht="16.5">
       <c r="A294" s="1">
         <v>294</v>
       </c>
@@ -12468,13 +12780,14 @@
       <c r="F294" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="H294" s="5"/>
+      <c r="G294" s="9"/>
       <c r="I294" s="5"/>
-      <c r="K294" s="1" t="s">
+      <c r="J294" s="5"/>
+      <c r="L294" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="16.5">
+    <row r="295" spans="1:12" ht="16.5">
       <c r="A295" s="1">
         <v>295</v>
       </c>
@@ -12493,18 +12806,19 @@
       <c r="F295" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="G295" s="1" t="s">
+      <c r="G295" s="9"/>
+      <c r="H295" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="H295" s="4" t="s">
+      <c r="I295" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I295" s="5"/>
-      <c r="K295" s="1" t="s">
+      <c r="J295" s="5"/>
+      <c r="L295" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="16.5">
+    <row r="296" spans="1:12" ht="16.5">
       <c r="A296" s="1">
         <v>296</v>
       </c>
@@ -12523,15 +12837,16 @@
       <c r="F296" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="H296" s="5" t="s">
+      <c r="G296" s="9"/>
+      <c r="I296" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I296" s="5"/>
-      <c r="K296" s="1" t="s">
+      <c r="J296" s="5"/>
+      <c r="L296" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="16.5">
+    <row r="297" spans="1:12" ht="16.5">
       <c r="A297" s="1">
         <v>297</v>
       </c>
@@ -12550,12 +12865,13 @@
       <c r="F297" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="H297" s="5"/>
-      <c r="I297" s="5" t="s">
+      <c r="G297" s="9"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="16.5">
+    <row r="298" spans="1:12" ht="16.5">
       <c r="A298" s="1">
         <v>298</v>
       </c>
@@ -12574,10 +12890,11 @@
       <c r="F298" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="H298" s="5"/>
+      <c r="G298" s="9"/>
       <c r="I298" s="5"/>
-    </row>
-    <row r="299" spans="1:11" ht="16.5">
+      <c r="J298" s="5"/>
+    </row>
+    <row r="299" spans="1:12" ht="16.5">
       <c r="A299" s="1">
         <v>299</v>
       </c>
@@ -12596,13 +12913,14 @@
       <c r="F299" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="G299" s="9" t="s">
+      <c r="G299" s="9"/>
+      <c r="H299" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="H299" s="5"/>
       <c r="I299" s="5"/>
-    </row>
-    <row r="300" spans="1:11" ht="16.5">
+      <c r="J299" s="5"/>
+    </row>
+    <row r="300" spans="1:12" ht="16.5">
       <c r="A300" s="1">
         <v>300</v>
       </c>
@@ -12621,16 +12939,17 @@
       <c r="F300" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="G300" s="9" t="s">
+      <c r="G300" s="9"/>
+      <c r="H300" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="H300" s="5"/>
       <c r="I300" s="5"/>
-      <c r="J300" s="1" t="s">
+      <c r="J300" s="5"/>
+      <c r="K300" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="16.5">
+    <row r="301" spans="1:12" ht="16.5">
       <c r="A301" s="1">
         <v>301</v>
       </c>
@@ -12649,12 +12968,13 @@
       <c r="F301" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="H301" s="5"/>
-      <c r="I301" s="4" t="s">
+      <c r="G301" s="9"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="16.5">
+    <row r="302" spans="1:12" ht="16.5">
       <c r="A302" s="1">
         <v>302</v>
       </c>
@@ -12673,10 +12993,11 @@
       <c r="F302" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="H302" s="5"/>
+      <c r="G302" s="9"/>
       <c r="I302" s="5"/>
-    </row>
-    <row r="303" spans="1:11" ht="16.5">
+      <c r="J302" s="5"/>
+    </row>
+    <row r="303" spans="1:12" ht="16.5">
       <c r="A303" s="1">
         <v>303</v>
       </c>
@@ -12695,13 +13016,14 @@
       <c r="F303" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="G303" s="9" t="s">
+      <c r="G303" s="9"/>
+      <c r="H303" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="H303" s="5"/>
       <c r="I303" s="5"/>
-    </row>
-    <row r="304" spans="1:11" ht="16.5">
+      <c r="J303" s="5"/>
+    </row>
+    <row r="304" spans="1:12" ht="16.5">
       <c r="A304" s="1">
         <v>304</v>
       </c>
@@ -12720,10 +13042,11 @@
       <c r="F304" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="H304" s="5"/>
+      <c r="G304" s="9"/>
       <c r="I304" s="5"/>
-    </row>
-    <row r="305" spans="1:11" ht="16.5">
+      <c r="J304" s="5"/>
+    </row>
+    <row r="305" spans="1:12" ht="16.5">
       <c r="A305" s="1">
         <v>305</v>
       </c>
@@ -12742,10 +13065,11 @@
       <c r="F305" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="H305" s="5"/>
+      <c r="G305" s="9"/>
       <c r="I305" s="5"/>
-    </row>
-    <row r="306" spans="1:11" ht="16.5">
+      <c r="J305" s="5"/>
+    </row>
+    <row r="306" spans="1:12" ht="16.5">
       <c r="A306" s="1">
         <v>306</v>
       </c>
@@ -12764,10 +13088,11 @@
       <c r="F306" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="H306" s="5"/>
+      <c r="G306" s="9"/>
       <c r="I306" s="5"/>
-    </row>
-    <row r="307" spans="1:11" ht="16.5">
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="1:12" ht="16.5">
       <c r="A307" s="1">
         <v>307</v>
       </c>
@@ -12786,13 +13111,14 @@
       <c r="F307" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="G307" s="9" t="s">
+      <c r="G307" s="9"/>
+      <c r="H307" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="H307" s="4"/>
-      <c r="I307" s="5"/>
-    </row>
-    <row r="308" spans="1:11" ht="16.5">
+      <c r="I307" s="4"/>
+      <c r="J307" s="5"/>
+    </row>
+    <row r="308" spans="1:12" ht="16.5">
       <c r="A308" s="1">
         <v>308</v>
       </c>
@@ -12811,15 +13137,16 @@
       <c r="F308" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="G308" s="9" t="s">
+      <c r="G308" s="9"/>
+      <c r="H308" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="H308" s="5"/>
-      <c r="I308" s="5" t="s">
+      <c r="I308" s="5"/>
+      <c r="J308" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="16.5">
+    <row r="309" spans="1:12" ht="16.5">
       <c r="A309" s="1">
         <v>309</v>
       </c>
@@ -12838,10 +13165,11 @@
       <c r="F309" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="H309" s="4"/>
-      <c r="I309" s="5"/>
-    </row>
-    <row r="310" spans="1:11" ht="16.5">
+      <c r="G309" s="9"/>
+      <c r="I309" s="4"/>
+      <c r="J309" s="5"/>
+    </row>
+    <row r="310" spans="1:12" ht="16.5">
       <c r="A310" s="1">
         <v>310</v>
       </c>
@@ -12860,15 +13188,16 @@
       <c r="F310" s="9" t="s">
         <v>918</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="G310" s="9"/>
+      <c r="H310" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="H310" s="5" t="s">
+      <c r="I310" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I310" s="5"/>
-    </row>
-    <row r="311" spans="1:11" ht="16.5">
+      <c r="J310" s="5"/>
+    </row>
+    <row r="311" spans="1:12" ht="16.5">
       <c r="A311" s="1">
         <v>311</v>
       </c>
@@ -12887,15 +13216,16 @@
       <c r="F311" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="G311" s="9" t="s">
+      <c r="G311" s="9"/>
+      <c r="H311" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="H311" s="5" t="s">
+      <c r="I311" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I311" s="5"/>
-    </row>
-    <row r="312" spans="1:11" ht="16.5">
+      <c r="J311" s="5"/>
+    </row>
+    <row r="312" spans="1:12" ht="16.5">
       <c r="A312" s="1">
         <v>312</v>
       </c>
@@ -12914,10 +13244,11 @@
       <c r="F312" s="9" t="s">
         <v>926</v>
       </c>
-      <c r="H312" s="5"/>
+      <c r="G312" s="9"/>
       <c r="I312" s="5"/>
-    </row>
-    <row r="313" spans="1:11" ht="16.5">
+      <c r="J312" s="5"/>
+    </row>
+    <row r="313" spans="1:12" ht="16.5">
       <c r="A313" s="1">
         <v>313</v>
       </c>
@@ -12936,18 +13267,19 @@
       <c r="F313" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="G313" s="9" t="s">
+      <c r="G313" s="9"/>
+      <c r="H313" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="H313" s="4" t="s">
+      <c r="I313" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I313" s="5"/>
-      <c r="K313" s="1" t="s">
+      <c r="J313" s="5"/>
+      <c r="L313" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="16.5">
+    <row r="314" spans="1:12" ht="16.5">
       <c r="A314" s="1">
         <v>314</v>
       </c>
@@ -12966,12 +13298,13 @@
       <c r="F314" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="H314" s="5"/>
-      <c r="I314" s="5" t="s">
+      <c r="G314" s="9"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="16.5">
+    <row r="315" spans="1:12" ht="16.5">
       <c r="A315" s="1">
         <v>315</v>
       </c>
@@ -12990,16 +13323,17 @@
       <c r="F315" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="G315" s="1" t="s">
+      <c r="G315" s="9"/>
+      <c r="H315" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H315" s="5"/>
       <c r="I315" s="5"/>
-      <c r="K315" s="1" t="s">
+      <c r="J315" s="5"/>
+      <c r="L315" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="16.5">
+    <row r="316" spans="1:12" ht="16.5">
       <c r="A316" s="1">
         <v>316</v>
       </c>
@@ -13018,19 +13352,20 @@
       <c r="F316" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="G316" s="9" t="s">
+      <c r="G316" s="9"/>
+      <c r="H316" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="H316" s="4" t="s">
+      <c r="I316" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I316" s="5"/>
-      <c r="J316" s="4"/>
-      <c r="K316" s="1" t="s">
+      <c r="J316" s="5"/>
+      <c r="K316" s="4"/>
+      <c r="L316" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="16.5">
+    <row r="317" spans="1:12" ht="16.5">
       <c r="A317" s="1">
         <v>317</v>
       </c>
@@ -13049,10 +13384,11 @@
       <c r="F317" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="H317" s="5"/>
+      <c r="G317" s="9"/>
       <c r="I317" s="5"/>
-    </row>
-    <row r="318" spans="1:11" ht="16.5">
+      <c r="J317" s="5"/>
+    </row>
+    <row r="318" spans="1:12" ht="16.5">
       <c r="A318" s="1">
         <v>318</v>
       </c>
@@ -13071,10 +13407,11 @@
       <c r="F318" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="H318" s="5"/>
-      <c r="I318" s="4"/>
-    </row>
-    <row r="319" spans="1:11" ht="16.5">
+      <c r="G318" s="9"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="4"/>
+    </row>
+    <row r="319" spans="1:12" ht="16.5">
       <c r="A319" s="1">
         <v>319</v>
       </c>
@@ -13093,17 +13430,18 @@
       <c r="F319" s="9" t="s">
         <v>918</v>
       </c>
-      <c r="G319" s="1" t="s">
+      <c r="G319" s="9"/>
+      <c r="H319" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="H319" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I319" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" ht="16.5">
+      <c r="J319" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="16.5">
       <c r="A320" s="1">
         <v>320</v>
       </c>
@@ -13122,15 +13460,16 @@
       <c r="F320" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="G320" s="9" t="s">
+      <c r="G320" s="9"/>
+      <c r="H320" s="9" t="s">
         <v>960</v>
       </c>
-      <c r="H320" s="5"/>
-      <c r="I320" s="4" t="s">
+      <c r="I320" s="5"/>
+      <c r="J320" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="16.5">
+    <row r="321" spans="1:12" ht="16.5">
       <c r="A321" s="1">
         <v>321</v>
       </c>
@@ -13149,12 +13488,13 @@
       <c r="F321" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="H321" s="5"/>
-      <c r="I321" s="5" t="s">
+      <c r="G321" s="9"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="16.5">
+    <row r="322" spans="1:12" ht="16.5">
       <c r="A322" s="1">
         <v>322</v>
       </c>
@@ -13173,12 +13513,13 @@
       <c r="F322" s="9" t="s">
         <v>968</v>
       </c>
-      <c r="H322" s="5" t="s">
+      <c r="G322" s="9"/>
+      <c r="I322" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I322" s="5"/>
-    </row>
-    <row r="323" spans="1:11" ht="16.5">
+      <c r="J322" s="5"/>
+    </row>
+    <row r="323" spans="1:12" ht="16.5">
       <c r="A323" s="1">
         <v>323</v>
       </c>
@@ -13197,12 +13538,13 @@
       <c r="F323" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="H323" s="5" t="s">
+      <c r="G323" s="9"/>
+      <c r="I323" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I323" s="5"/>
-    </row>
-    <row r="324" spans="1:11" ht="16.5">
+      <c r="J323" s="5"/>
+    </row>
+    <row r="324" spans="1:12" ht="16.5">
       <c r="A324" s="1">
         <v>324</v>
       </c>
@@ -13221,12 +13563,13 @@
       <c r="F324" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="H324" s="4" t="s">
+      <c r="G324" s="9"/>
+      <c r="I324" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I324" s="5"/>
-    </row>
-    <row r="325" spans="1:11" ht="16.5">
+      <c r="J324" s="5"/>
+    </row>
+    <row r="325" spans="1:12" ht="16.5">
       <c r="A325" s="1">
         <v>325</v>
       </c>
@@ -13245,10 +13588,11 @@
       <c r="F325" s="9" t="s">
         <v>979</v>
       </c>
-      <c r="H325" s="5"/>
+      <c r="G325" s="9"/>
       <c r="I325" s="5"/>
-    </row>
-    <row r="326" spans="1:11" ht="16.5">
+      <c r="J325" s="5"/>
+    </row>
+    <row r="326" spans="1:12" ht="16.5">
       <c r="A326" s="1">
         <v>326</v>
       </c>
@@ -13267,13 +13611,14 @@
       <c r="F326" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="H326" s="5"/>
+      <c r="G326" s="9"/>
       <c r="I326" s="5"/>
-      <c r="J326" s="1" t="s">
+      <c r="J326" s="5"/>
+      <c r="K326" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="16.5">
+    <row r="327" spans="1:12" ht="16.5">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -13292,15 +13637,16 @@
       <c r="F327" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="G327" s="9" t="s">
+      <c r="G327" s="9"/>
+      <c r="H327" s="9" t="s">
         <v>988</v>
       </c>
-      <c r="H327" s="5"/>
-      <c r="I327" s="5" t="s">
+      <c r="I327" s="5"/>
+      <c r="J327" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="16.5">
+    <row r="328" spans="1:12" ht="16.5">
       <c r="A328" s="1">
         <v>328</v>
       </c>
@@ -13319,10 +13665,11 @@
       <c r="F328" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="H328" s="4"/>
-      <c r="I328" s="5"/>
-    </row>
-    <row r="329" spans="1:11" ht="16.5">
+      <c r="G328" s="9"/>
+      <c r="I328" s="4"/>
+      <c r="J328" s="5"/>
+    </row>
+    <row r="329" spans="1:12" ht="16.5">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -13341,10 +13688,11 @@
       <c r="F329" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="H329" s="5"/>
+      <c r="G329" s="9"/>
       <c r="I329" s="5"/>
-    </row>
-    <row r="330" spans="1:11" ht="16.5">
+      <c r="J329" s="5"/>
+    </row>
+    <row r="330" spans="1:12" ht="16.5">
       <c r="A330" s="1">
         <v>330</v>
       </c>
@@ -13363,18 +13711,19 @@
       <c r="F330" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="G330" s="9" t="s">
+      <c r="G330" s="9"/>
+      <c r="H330" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="H330" s="4" t="s">
+      <c r="I330" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I330" s="5"/>
-      <c r="K330" s="1" t="s">
+      <c r="J330" s="5"/>
+      <c r="L330" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="16.5">
+    <row r="331" spans="1:12" ht="16.5">
       <c r="A331" s="1">
         <v>331</v>
       </c>
@@ -13393,15 +13742,16 @@
       <c r="F331" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="H331" s="4" t="s">
+      <c r="G331" s="9"/>
+      <c r="I331" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I331" s="5"/>
-      <c r="K331" s="1" t="s">
+      <c r="J331" s="5"/>
+      <c r="L331" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="16.5">
+    <row r="332" spans="1:12" ht="16.5">
       <c r="A332" s="1">
         <v>332</v>
       </c>
@@ -13420,15 +13770,16 @@
       <c r="F332" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="H332" s="5"/>
-      <c r="I332" s="4" t="s">
+      <c r="G332" s="9"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J332" s="1" t="s">
+      <c r="K332" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="16.5">
+    <row r="333" spans="1:12" ht="16.5">
       <c r="A333" s="1">
         <v>333</v>
       </c>
@@ -13447,17 +13798,18 @@
       <c r="F333" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="H333" s="4" t="s">
+      <c r="G333" s="9"/>
+      <c r="I333" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I333" s="5" t="s">
+      <c r="J333" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K333" s="1" t="s">
+      <c r="L333" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="16.5">
+    <row r="334" spans="1:12" ht="16.5">
       <c r="A334" s="1">
         <v>334</v>
       </c>
@@ -13476,13 +13828,14 @@
       <c r="F334" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="H334" s="5"/>
+      <c r="G334" s="9"/>
       <c r="I334" s="5"/>
-      <c r="J334" s="1" t="s">
+      <c r="J334" s="5"/>
+      <c r="K334" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="16.5">
+    <row r="335" spans="1:12" ht="16.5">
       <c r="A335" s="1">
         <v>335</v>
       </c>
@@ -13501,16 +13854,17 @@
       <c r="F335" s="9" t="s">
         <v>1020</v>
       </c>
-      <c r="G335" s="1" t="s">
+      <c r="G335" s="9"/>
+      <c r="H335" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H335" s="5"/>
       <c r="I335" s="5"/>
-      <c r="J335" s="1" t="s">
+      <c r="J335" s="5"/>
+      <c r="K335" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="16.5">
+    <row r="336" spans="1:12" ht="16.5">
       <c r="A336" s="1">
         <v>336</v>
       </c>
@@ -13529,12 +13883,13 @@
       <c r="F336" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="H336" s="5"/>
-      <c r="I336" s="5" t="s">
+      <c r="G336" s="9"/>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="16.5">
+    <row r="337" spans="1:12" ht="16.5">
       <c r="A337" s="1">
         <v>337</v>
       </c>
@@ -13553,15 +13908,16 @@
       <c r="F337" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="H337" s="5" t="s">
+      <c r="G337" s="9"/>
+      <c r="I337" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I337" s="5"/>
-      <c r="K337" s="1" t="s">
+      <c r="J337" s="5"/>
+      <c r="L337" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="16.5">
+    <row r="338" spans="1:12" ht="16.5">
       <c r="A338" s="1">
         <v>338</v>
       </c>
@@ -13580,15 +13936,16 @@
       <c r="F338" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="H338" s="5" t="s">
+      <c r="G338" s="9"/>
+      <c r="I338" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I338" s="5"/>
-      <c r="K338" s="1" t="s">
+      <c r="J338" s="5"/>
+      <c r="L338" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="16.5">
+    <row r="339" spans="1:12" ht="16.5">
       <c r="A339" s="1">
         <v>339</v>
       </c>
@@ -13607,16 +13964,17 @@
       <c r="F339" s="13" t="s">
         <v>1036</v>
       </c>
-      <c r="G339" s="9" t="s">
+      <c r="G339" s="13"/>
+      <c r="H339" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="H339" s="5"/>
       <c r="I339" s="5"/>
-      <c r="J339" s="1" t="s">
+      <c r="J339" s="5"/>
+      <c r="K339" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="16.5">
+    <row r="340" spans="1:12" ht="16.5">
       <c r="A340" s="1">
         <v>340</v>
       </c>
@@ -13635,18 +13993,19 @@
       <c r="F340" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="H340" s="4" t="s">
+      <c r="G340" s="9"/>
+      <c r="I340" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I340" s="5"/>
-      <c r="J340" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="J340" s="5"/>
       <c r="K340" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" ht="16.5">
+      <c r="L340" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="16.5">
       <c r="A341" s="1">
         <v>341</v>
       </c>
@@ -13665,15 +14024,16 @@
       <c r="F341" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="H341" s="5" t="s">
+      <c r="G341" s="9"/>
+      <c r="I341" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I341" s="5"/>
-      <c r="K341" s="1" t="s">
+      <c r="J341" s="5"/>
+      <c r="L341" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="16.5">
+    <row r="342" spans="1:12" ht="16.5">
       <c r="A342" s="1">
         <v>342</v>
       </c>
@@ -13692,13 +14052,14 @@
       <c r="F342" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="G342" s="9" t="s">
+      <c r="G342" s="9"/>
+      <c r="H342" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="H342" s="5"/>
       <c r="I342" s="5"/>
-    </row>
-    <row r="343" spans="1:11" ht="16.5">
+      <c r="J342" s="5"/>
+    </row>
+    <row r="343" spans="1:12" ht="16.5">
       <c r="A343" s="1">
         <v>343</v>
       </c>
@@ -13717,10 +14078,11 @@
       <c r="F343" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="H343" s="5"/>
+      <c r="G343" s="9"/>
       <c r="I343" s="5"/>
-    </row>
-    <row r="344" spans="1:11" ht="16.5">
+      <c r="J343" s="5"/>
+    </row>
+    <row r="344" spans="1:12" ht="16.5">
       <c r="A344" s="1">
         <v>344</v>
       </c>
@@ -13739,16 +14101,17 @@
       <c r="F344" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="G344" s="1" t="s">
+      <c r="G344" s="12"/>
+      <c r="H344" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="H344" s="5"/>
       <c r="I344" s="5"/>
-      <c r="K344" s="1" t="s">
+      <c r="J344" s="5"/>
+      <c r="L344" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="16.5">
+    <row r="345" spans="1:12" ht="16.5">
       <c r="A345" s="1">
         <v>345</v>
       </c>
@@ -13767,18 +14130,19 @@
       <c r="F345" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="G345" s="9" t="s">
+      <c r="G345" s="9"/>
+      <c r="H345" s="9" t="s">
         <v>1063</v>
       </c>
-      <c r="H345" s="5"/>
-      <c r="I345" s="5" t="s">
+      <c r="I345" s="5"/>
+      <c r="J345" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J345" s="1" t="s">
+      <c r="K345" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="16.5">
+    <row r="346" spans="1:12" ht="16.5">
       <c r="A346" s="1">
         <v>346</v>
       </c>
@@ -13797,12 +14161,13 @@
       <c r="F346" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="H346" s="4"/>
-      <c r="I346" s="5" t="s">
+      <c r="G346" s="9"/>
+      <c r="I346" s="4"/>
+      <c r="J346" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="16.5">
+    <row r="347" spans="1:12" ht="16.5">
       <c r="A347" s="1">
         <v>347</v>
       </c>
@@ -13821,15 +14186,16 @@
       <c r="F347" s="9" t="s">
         <v>1071</v>
       </c>
-      <c r="H347" s="4" t="s">
+      <c r="G347" s="9"/>
+      <c r="I347" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I347" s="5"/>
-      <c r="K347" s="1" t="s">
+      <c r="J347" s="5"/>
+      <c r="L347" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="16.5">
+    <row r="348" spans="1:12" ht="16.5">
       <c r="A348" s="1">
         <v>348</v>
       </c>
@@ -13848,15 +14214,16 @@
       <c r="F348" s="9" t="s">
         <v>1075</v>
       </c>
-      <c r="G348" s="9" t="s">
+      <c r="G348" s="9"/>
+      <c r="H348" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="H348" s="5" t="s">
+      <c r="I348" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I348" s="5"/>
-    </row>
-    <row r="349" spans="1:11" ht="16.5">
+      <c r="J348" s="5"/>
+    </row>
+    <row r="349" spans="1:12" ht="16.5">
       <c r="A349" s="1">
         <v>349</v>
       </c>
@@ -13875,20 +14242,21 @@
       <c r="F349" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G349" s="9" t="s">
+      <c r="G349" s="9"/>
+      <c r="H349" s="9" t="s">
         <v>889</v>
-      </c>
-      <c r="H349" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="I349" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K349" s="1" t="s">
+      <c r="J349" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" ht="16.5">
+      <c r="L349" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="16.5">
       <c r="A350" s="1">
         <v>350</v>
       </c>
@@ -13907,13 +14275,14 @@
       <c r="F350" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="G350" s="9" t="s">
+      <c r="G350" s="9"/>
+      <c r="H350" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="H350" s="5"/>
       <c r="I350" s="5"/>
-    </row>
-    <row r="351" spans="1:11" ht="16.5">
+      <c r="J350" s="5"/>
+    </row>
+    <row r="351" spans="1:12" ht="16.5">
       <c r="A351" s="1">
         <v>351</v>
       </c>
@@ -13932,15 +14301,16 @@
       <c r="F351" s="9" t="s">
         <v>1088</v>
       </c>
-      <c r="G351" s="9" t="s">
+      <c r="G351" s="9"/>
+      <c r="H351" s="9" t="s">
         <v>1089</v>
       </c>
-      <c r="H351" s="5"/>
-      <c r="I351" s="4" t="s">
+      <c r="I351" s="5"/>
+      <c r="J351" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="16.5">
+    <row r="352" spans="1:12" ht="16.5">
       <c r="A352" s="1">
         <v>352</v>
       </c>
@@ -13959,12 +14329,13 @@
       <c r="F352" s="9" t="s">
         <v>1093</v>
       </c>
-      <c r="H352" s="5"/>
-      <c r="I352" s="4" t="s">
+      <c r="G352" s="9"/>
+      <c r="I352" s="5"/>
+      <c r="J352" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="16.5">
+    <row r="353" spans="1:12" ht="16.5">
       <c r="A353" s="1">
         <v>353</v>
       </c>
@@ -13983,18 +14354,19 @@
       <c r="F353" s="9" t="s">
         <v>1097</v>
       </c>
-      <c r="G353" s="9" t="s">
+      <c r="G353" s="9"/>
+      <c r="H353" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="H353" s="4" t="s">
+      <c r="I353" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I353" s="5"/>
-      <c r="K353" s="1" t="s">
+      <c r="J353" s="5"/>
+      <c r="L353" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="16.5">
+    <row r="354" spans="1:12" ht="16.5">
       <c r="A354" s="1">
         <v>354</v>
       </c>
@@ -14013,15 +14385,16 @@
       <c r="F354" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="H354" s="5" t="s">
+      <c r="G354" s="9"/>
+      <c r="I354" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I354" s="5"/>
-      <c r="K354" s="1" t="s">
+      <c r="J354" s="5"/>
+      <c r="L354" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="16.5">
+    <row r="355" spans="1:12" ht="16.5">
       <c r="A355" s="1">
         <v>355</v>
       </c>
@@ -14040,15 +14413,16 @@
       <c r="F355" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="G355" s="9" t="s">
+      <c r="G355" s="9"/>
+      <c r="H355" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="H355" s="4"/>
-      <c r="I355" s="5" t="s">
+      <c r="I355" s="4"/>
+      <c r="J355" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="16.5">
+    <row r="356" spans="1:12" ht="16.5">
       <c r="A356" s="1">
         <v>356</v>
       </c>
@@ -14067,15 +14441,16 @@
       <c r="F356" s="9" t="s">
         <v>1110</v>
       </c>
-      <c r="G356" s="1" t="s">
+      <c r="G356" s="9"/>
+      <c r="H356" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H356" s="5" t="s">
+      <c r="I356" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I356" s="5"/>
-    </row>
-    <row r="357" spans="1:11" ht="16.5">
+      <c r="J356" s="5"/>
+    </row>
+    <row r="357" spans="1:12" ht="16.5">
       <c r="A357" s="1">
         <v>357</v>
       </c>
@@ -14094,15 +14469,16 @@
       <c r="F357" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="G357" s="9" t="s">
+      <c r="G357" s="9"/>
+      <c r="H357" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="H357" s="4" t="s">
+      <c r="I357" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I357" s="5"/>
-    </row>
-    <row r="358" spans="1:11">
+      <c r="J357" s="5"/>
+    </row>
+    <row r="358" spans="1:12">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -14116,7 +14492,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:12">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -14130,7 +14506,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:12">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -14144,7 +14520,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:12">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -14158,7 +14534,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:12">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -14172,7 +14548,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:12">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -14186,7 +14562,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:12">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -14201,7 +14577,7 @@
       </c>
       <c r="E364" s="8"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:12">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -14215,7 +14591,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:12">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -14229,7 +14605,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:12">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -14243,7 +14619,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:12">
       <c r="A368" s="1">
         <v>368</v>
       </c>
